--- a/Multiparameter analysis in R (Rannveig)/Data/Results2.xlsx
+++ b/Multiparameter analysis in R (Rannveig)/Data/Results2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6DCBC-66C8-4DB5-9FF6-DAF2465A4FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13131A18-85E4-430C-BE07-BC729384B718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="420" yWindow="-105" windowWidth="22725" windowHeight="13170" activeTab="5" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="2R" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="328">
   <si>
     <t>Al 7005</t>
   </si>
@@ -940,9 +940,6 @@
     <t>A10</t>
   </si>
   <si>
-    <t>2024-T351</t>
-  </si>
-  <si>
     <t>Effect of the Lode parameter in predicting shear cracking of 2024-T351 aluminum alloy Taylor rods</t>
   </si>
   <si>
@@ -986,9 +983,6 @@
   </si>
   <si>
     <t>COMPOSITE (WOVEN)</t>
-  </si>
-  <si>
-    <t>AA 2014-T652</t>
   </si>
   <si>
     <t>weird results</t>
@@ -1106,9 +1100,6 @@
   </si>
   <si>
     <t>SPH RESULTS</t>
-  </si>
-  <si>
-    <t>AA6070-O (SPH)</t>
   </si>
   <si>
     <t>AISI 4340 (SPH)</t>
@@ -1284,14 +1275,30 @@
   <si>
     <t>1d-2c-3c</t>
   </si>
+  <si>
+    <t>AA2024-T351</t>
+  </si>
+  <si>
+    <t>AA2014-T652</t>
+  </si>
+  <si>
+    <t>Modelling and Simulation of Hypervelocity Impacts on Spacecraft in Low Earth Orbit</t>
+  </si>
+  <si>
+    <t>Ballistic impact response of high strength aluminium alloy 2014-T652 subjected to rigid and deformable projectiles</t>
+  </si>
+  <si>
+    <t>AA6061-T6 (SPH)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2103,7 +2110,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2721,6 +2728,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3823,7 +3831,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and percentage of converted particles due to temperature</c:v>
+              <c:v>density and percentage of converted particles due to temperature</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -3920,7 +3928,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,7 +3987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4038,7 +4046,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4097,7 +4105,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4156,7 +4164,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4229,7 +4237,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>56140.350877192977</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,7 +4310,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69607.843137254895</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4375,7 +4383,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70294.117647058825</c:v>
+                  <c:v>2.81E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4434,7 +4442,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>205880</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4505,7 +4513,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4576,7 +4584,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4647,7 +4655,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4718,7 +4726,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4791,7 +4799,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4862,7 +4870,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>199019.60784313726</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4933,7 +4941,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>164285.71428571426</c:v>
+                  <c:v>7.8899999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5043,7 +5051,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>164285.71428571426</c:v>
+                  <c:v>7.8899999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,7 +5124,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>196078.43137254901</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5187,7 +5195,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8000000000000004E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5220,7 +5228,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2024-T351</c:v>
+                  <c:v>AA2024-T351</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5258,7 +5266,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>59999.999999999993</c:v>
+                  <c:v>2.7700000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5329,7 +5337,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8100000000000001E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5400,7 +5408,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>197058.82352941175</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5471,7 +5479,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>163492.06349206346</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5542,7 +5550,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>153174.60317460314</c:v>
+                  <c:v>8.0000000000000005E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5615,7 +5623,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5688,7 +5696,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5700,7 +5708,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.35</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5765,7 +5773,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6115,7 +6123,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and target hole diameter</c:v>
+              <c:v>density and target hole diameter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -6206,7 +6214,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6273,7 +6281,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6340,7 +6348,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6407,7 +6415,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6440,9 +6448,10 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AA6070-O (SPH)</c:v>
+                  <c:v>AA6061-T6 (SPH)</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -6474,9 +6483,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -6486,13 +6496,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.62</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1647-4A8F-9F60-A92ADCFED8B9}"/>
             </c:ext>
@@ -6541,7 +6552,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,7 +6619,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6675,7 +6686,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6696,71 +6707,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1647-4A8F-9F60-A92ADCFED8B9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="29"/>
-          <c:order val="29"/>
-          <c:tx>
-            <c:v>bestfit</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>plots!$BD$12:$BD$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>58333.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>117881.03958333335</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>174999.99999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>310000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>plots!$BE$12:$BE$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11.46923</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>15.44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-1647-4A8F-9F60-A92ADCFED8B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6818,7 +6764,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6891,7 +6837,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6964,7 +6910,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7037,7 +6983,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7160,7 +7106,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>56140.350877192977</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7253,7 +7199,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>69607.843137254895</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7346,7 +7292,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>70294.117647058825</c:v>
+                        <c:v>2.81E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7393,7 +7339,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>2024-T351</c:v>
+                        <c:v>AA2024-T351</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7437,7 +7383,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>59999.999999999993</c:v>
+                        <c:v>2.7700000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7510,7 +7456,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>205880</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7601,7 +7547,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7692,7 +7638,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7783,7 +7729,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.4299999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7902,7 +7848,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>199019.60784313726</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7995,7 +7941,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>164285.71428571426</c:v>
+                        <c:v>7.8899999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8088,7 +8034,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>196078.43137254901</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8181,7 +8127,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8000000000000004E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8272,7 +8218,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8100000000000001E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8363,7 +8309,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>197058.82352941175</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8454,7 +8400,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>163492.06349206346</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8545,7 +8491,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>153174.60317460314</c:v>
+                        <c:v>8.0000000000000005E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8638,7 +8584,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8656,7 +8602,7 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>14.808106666666665</c:v>
+                        <c:v>14.940455</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8665,6 +8611,85 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001A-2193-4350-9677-50A4552054C7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="29"/>
+                <c:order val="29"/>
+                <c:tx>
+                  <c:v>bestfit</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>plots!$BD$12:$BD$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>2.7000000000000002E-9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.4299999999999998E-9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.8500000000000008E-9</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.7599999999999999E-8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>plots!$BE$12:$BE$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>11.46923</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="General">
+                        <c:v>15.44</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15.72</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-1647-4A8F-9F60-A92ADCFED8B9}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -8714,7 +8739,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9056,7 +9081,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and debris cloud diamter</c:v>
+              <c:v>density and debris cloud diamter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -9147,7 +9172,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9214,7 +9239,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9281,7 +9306,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9348,7 +9373,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9381,9 +9406,10 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AA6070-O (SPH)</c:v>
+                  <c:v>AA6061-T6 (SPH)</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -9415,9 +9441,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -9427,13 +9454,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24.28</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FBEE-418D-B31C-7AAFE9ED74E1}"/>
             </c:ext>
@@ -9482,7 +9510,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9549,7 +9577,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9616,7 +9644,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9694,7 +9722,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9767,7 +9795,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9840,7 +9868,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9913,7 +9941,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10006,7 +10034,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>56140.350877192977</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10099,7 +10127,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>69607.843137254895</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10192,7 +10220,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>70294.117647058825</c:v>
+                        <c:v>2.81E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10265,7 +10293,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>205880</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10356,7 +10384,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.4299999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10447,7 +10475,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10538,7 +10566,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10629,7 +10657,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>199019.60784313726</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10722,7 +10750,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>164285.71428571426</c:v>
+                        <c:v>7.8899999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10815,7 +10843,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>196078.43137254901</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10908,7 +10936,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8000000000000004E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10955,7 +10983,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>2024-T351</c:v>
+                        <c:v>AA2024-T351</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10999,7 +11027,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>59999.999999999993</c:v>
+                        <c:v>2.7700000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11090,7 +11118,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8100000000000001E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11181,7 +11209,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>197058.82352941175</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11272,7 +11300,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>163492.06349206346</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11363,7 +11391,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>153174.60317460314</c:v>
+                        <c:v>8.0000000000000005E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11456,7 +11484,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11471,10 +11499,10 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>47.780433333333328</c:v>
+                        <c:v>49.186</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11532,7 +11560,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11874,7 +11902,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and percentage of solid material in debris cloud</c:v>
+              <c:v>density and percentage of solid material in debris cloud</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -11979,7 +12007,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12046,7 +12074,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12113,7 +12141,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12180,7 +12208,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12258,7 +12286,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12331,7 +12359,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12404,7 +12432,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12477,7 +12505,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12570,7 +12598,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>56140.350877192977</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12663,7 +12691,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>69607.843137254895</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12756,7 +12784,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>70294.117647058825</c:v>
+                        <c:v>2.81E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12829,7 +12857,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>205880</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12920,7 +12948,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.4299999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13011,7 +13039,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13102,7 +13130,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13193,7 +13221,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>199019.60784313726</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13286,7 +13314,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>164285.71428571426</c:v>
+                        <c:v>7.8899999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13379,7 +13407,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>196078.43137254901</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13472,7 +13500,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8000000000000004E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13519,7 +13547,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>2024-T351</c:v>
+                        <c:v>AA2024-T351</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -13563,7 +13591,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>59999.999999999993</c:v>
+                        <c:v>2.7700000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13654,7 +13682,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8100000000000001E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13745,7 +13773,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>197058.82352941175</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13836,7 +13864,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>163492.06349206346</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13927,7 +13955,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>153174.60317460314</c:v>
+                        <c:v>8.0000000000000005E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14020,7 +14048,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14038,7 +14066,7 @@
                       <c:formatCode>0.0</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>8.7704918032786896</c:v>
+                        <c:v>8.6885245901639347</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14067,7 +14095,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>AA6070-O (SPH)</c:v>
+                        <c:v>AA6061-T6 (SPH)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -14107,7 +14135,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14194,7 +14222,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>117881.03958333335</c:v>
+                        <c:v>4.4299999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14305,7 +14333,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14392,7 +14420,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>310000</c:v>
+                        <c:v>1.7599999999999999E-8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14468,7 +14496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14810,7 +14838,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and residual velocity</c:v>
+              <c:v>density and residual velocity</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -14901,7 +14929,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14968,7 +14996,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15035,7 +15063,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15102,7 +15130,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15135,9 +15163,10 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AA6070-O (SPH)</c:v>
+                  <c:v>AA6061-T6 (SPH)</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -15169,25 +15198,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>sim_results!$F$38</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6150000</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7724-411F-9624-78C3874BAD9B}"/>
             </c:ext>
@@ -15236,7 +15267,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15303,7 +15334,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15370,7 +15401,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15448,7 +15479,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15521,7 +15552,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15594,7 +15625,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15667,7 +15698,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15760,7 +15791,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>56140.350877192977</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15853,7 +15884,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>69607.843137254895</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15946,7 +15977,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>70294.117647058825</c:v>
+                        <c:v>2.81E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16019,7 +16050,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>205880</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16110,7 +16141,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.4299999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16201,7 +16232,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16292,7 +16323,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16383,7 +16414,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>199019.60784313726</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16474,7 +16505,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>164285.71428571426</c:v>
+                        <c:v>7.8899999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16604,7 +16635,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>164285.71428571426</c:v>
+                        <c:v>7.8899999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16697,7 +16728,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>196078.43137254901</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16788,7 +16819,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8000000000000004E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16835,7 +16866,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>2024-T351</c:v>
+                        <c:v>AA2024-T351</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -16879,7 +16910,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>59999.999999999993</c:v>
+                        <c:v>2.7700000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16970,7 +17001,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8100000000000001E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17061,7 +17092,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>197058.82352941175</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17152,7 +17183,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>163492.06349206346</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17243,7 +17274,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>153174.60317460314</c:v>
+                        <c:v>8.0000000000000005E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17336,7 +17367,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17412,7 +17443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17754,7 +17785,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and percentage of converted particles due to temperature</c:v>
+              <c:v>density and percentage of converted particles due to temperature</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -17859,7 +17890,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17926,7 +17957,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17993,7 +18024,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18060,7 +18091,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18138,7 +18169,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18211,7 +18242,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18284,7 +18315,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18357,7 +18388,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18450,7 +18481,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>56140.350877192977</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18543,7 +18574,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>69607.843137254895</c:v>
+                        <c:v>2.7099999999999999E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18636,7 +18667,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>70294.117647058825</c:v>
+                        <c:v>2.81E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18709,7 +18740,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>205880</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18800,7 +18831,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.4299999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18891,7 +18922,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19013,7 +19044,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>116</c:v>
+                        <c:v>4.5500000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19104,7 +19135,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>199019.60784313726</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19195,7 +19226,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>164285.71428571426</c:v>
+                        <c:v>7.8899999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19325,7 +19356,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>164285.71428571426</c:v>
+                        <c:v>7.8899999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19418,7 +19449,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>196078.43137254901</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19509,7 +19540,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8000000000000004E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19556,7 +19587,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>2024-T351</c:v>
+                        <c:v>AA2024-T351</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -19600,7 +19631,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>59999.999999999993</c:v>
+                        <c:v>2.7700000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19691,7 +19722,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8100000000000001E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19782,7 +19813,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>197058.82352941175</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19873,7 +19904,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>163492.06349206346</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -19964,7 +19995,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>153174.60317460314</c:v>
+                        <c:v>8.0000000000000005E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20057,7 +20088,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20075,7 +20106,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>1.35</c:v>
+                        <c:v>1.34</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20104,7 +20135,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>AA6070-O (SPH)</c:v>
+                        <c:v>AA6061-T6 (SPH)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -20144,7 +20175,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>58333.33</c:v>
+                        <c:v>2.7000000000000002E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20231,7 +20262,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>117881.03958333335</c:v>
+                        <c:v>4.4299999999999998E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20318,7 +20349,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>174999.99999999997</c:v>
+                        <c:v>7.8500000000000008E-9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20405,7 +20436,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>310000</c:v>
+                        <c:v>1.7599999999999999E-8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20481,7 +20512,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -24435,7 +24466,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and target hole diameter</c:v>
+              <c:v>density and target hole diameter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -24518,7 +24549,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24577,7 +24608,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24636,7 +24667,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24695,7 +24726,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24754,7 +24785,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24857,7 +24888,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>56140.350877192977</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24930,7 +24961,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69607.843137254895</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25003,7 +25034,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70294.117647058825</c:v>
+                  <c:v>2.81E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25036,7 +25067,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2024-T351</c:v>
+                  <c:v>AA2024-T351</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -25074,7 +25105,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>59999.999999999993</c:v>
+                  <c:v>2.7700000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25133,7 +25164,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>205880</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25204,7 +25235,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25275,7 +25306,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25346,7 +25377,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25417,7 +25448,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25488,7 +25519,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25587,7 +25618,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>199019.60784313726</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25660,7 +25691,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>164285.71428571426</c:v>
+                  <c:v>7.8899999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25733,7 +25764,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>196078.43137254901</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25806,7 +25837,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8000000000000004E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25877,7 +25908,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8100000000000001E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25948,7 +25979,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>197058.82352941175</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26019,7 +26050,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>163492.06349206346</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26090,7 +26121,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>153174.60317460314</c:v>
+                  <c:v>8.0000000000000005E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26161,7 +26192,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26234,7 +26265,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26246,7 +26277,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.808106666666665</c:v>
+                  <c:v>14.940455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26311,7 +26342,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -26654,7 +26685,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and debris cloud diamter</c:v>
+              <c:v>density and debris cloud diamter</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -26737,7 +26768,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26796,7 +26827,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26855,7 +26886,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26914,7 +26945,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26973,7 +27004,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27046,7 +27077,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>56140.350877192977</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27119,7 +27150,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69607.843137254895</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27192,7 +27223,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70294.117647058825</c:v>
+                  <c:v>2.81E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27251,7 +27282,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>205880</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27322,7 +27353,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27393,7 +27424,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27464,7 +27495,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27535,7 +27566,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27606,7 +27637,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27677,7 +27708,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>199019.60784313726</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27750,7 +27781,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>164285.71428571426</c:v>
+                  <c:v>7.8899999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27823,7 +27854,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>196078.43137254901</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27896,7 +27927,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8000000000000004E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27929,7 +27960,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2024-T351</c:v>
+                  <c:v>AA2024-T351</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -27967,7 +27998,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>59999.999999999993</c:v>
+                  <c:v>2.7700000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28038,7 +28069,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8100000000000001E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28109,7 +28140,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>197058.82352941175</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28180,7 +28211,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>163492.06349206346</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28251,7 +28282,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>153174.60317460314</c:v>
+                  <c:v>8.0000000000000005E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28322,7 +28353,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28395,7 +28426,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28404,10 +28435,10 @@
             <c:numRef>
               <c:f>sim_results!$AP$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>47.780433333333328</c:v>
+                  <c:v>49.186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28472,7 +28503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -28814,7 +28845,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and percentage of solid material in debris cloud</c:v>
+              <c:v>density and percentage of solid material in debris cloud</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -28911,7 +28942,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28970,7 +29001,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29029,7 +29060,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29088,7 +29119,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29147,7 +29178,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29220,7 +29251,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>56140.350877192977</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29293,7 +29324,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69607.843137254895</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29366,7 +29397,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70294.117647058825</c:v>
+                  <c:v>2.81E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29425,7 +29456,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>205880</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29496,7 +29527,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29567,7 +29598,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29638,7 +29669,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29709,7 +29740,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29780,7 +29811,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29851,7 +29882,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>199019.60784313726</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29924,7 +29955,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>164285.71428571426</c:v>
+                  <c:v>7.8899999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29997,7 +30028,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>196078.43137254901</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30070,7 +30101,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8000000000000004E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30103,7 +30134,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2024-T351</c:v>
+                  <c:v>AA2024-T351</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30141,7 +30172,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>59999.999999999993</c:v>
+                  <c:v>2.7700000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30212,7 +30243,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8100000000000001E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30283,7 +30314,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>197058.82352941175</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30354,7 +30385,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>163492.06349206346</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30425,7 +30456,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>153174.60317460314</c:v>
+                  <c:v>8.0000000000000005E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30496,7 +30527,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30569,7 +30600,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30581,7 +30612,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.7704918032786896</c:v>
+                  <c:v>8.6885245901639347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30646,7 +30677,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30988,7 +31019,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>bulk modulus and residual velocity</c:v>
+              <c:v>density and residual velocity</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -31071,7 +31102,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31130,7 +31161,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31189,7 +31220,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31248,7 +31279,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31307,7 +31338,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31380,7 +31411,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>56140.350877192977</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31453,7 +31484,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69607.843137254895</c:v>
+                  <c:v>2.7099999999999999E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31526,7 +31557,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70294.117647058825</c:v>
+                  <c:v>2.81E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31585,7 +31616,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>205880</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31656,7 +31687,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31727,7 +31758,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31798,7 +31829,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31869,7 +31900,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>4.5500000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31942,7 +31973,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117881.03958333335</c:v>
+                  <c:v>4.4299999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32013,7 +32044,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>199019.60784313726</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32084,7 +32115,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>164285.71428571426</c:v>
+                  <c:v>7.8899999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32194,7 +32225,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>164285.71428571426</c:v>
+                  <c:v>7.8899999999999998E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32267,7 +32298,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>196078.43137254901</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32338,7 +32369,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8000000000000004E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32371,7 +32402,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2024-T351</c:v>
+                  <c:v>AA2024-T351</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32409,7 +32440,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>59999.999999999993</c:v>
+                  <c:v>2.7700000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32480,7 +32511,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>174999.99999999997</c:v>
+                  <c:v>7.8100000000000001E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32551,7 +32582,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>197058.82352941175</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32622,7 +32653,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>163492.06349206346</c:v>
+                  <c:v>7.8500000000000008E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32693,7 +32724,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>153174.60317460314</c:v>
+                  <c:v>8.0000000000000005E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32766,7 +32797,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>310000</c:v>
+                  <c:v>1.7599999999999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32839,7 +32870,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58333.33</c:v>
+                  <c:v>2.7000000000000002E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32916,7 +32947,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>K (MPa)</c:v>
+                  <c:v>rho (ton/mm3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -42451,11 +42482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F0892A-EC18-4D10-9BBF-307113572B2D}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="243"/>
     <col min="5" max="5" width="12.85546875" style="243" customWidth="1"/>
@@ -42466,45 +42497,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="244" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="244" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="244" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="244" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="244" t="s">
+      <c r="E1" s="244" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="244" t="s">
+      <c r="F1" s="244" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="244" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="244" t="s">
+      <c r="H1" s="244" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="244" t="s">
+      <c r="I1" s="244" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="244" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="244" t="s">
+      <c r="J1" s="244" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="244" t="s">
+      <c r="K1" s="244" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="244" t="s">
+      <c r="L1" s="244" t="s">
         <v>281</v>
-      </c>
-      <c r="J1" s="244" t="s">
-        <v>282</v>
-      </c>
-      <c r="K1" s="244" t="s">
-        <v>283</v>
-      </c>
-      <c r="L1" s="244" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="243" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B2" s="243">
         <v>1</v>
@@ -42549,7 +42580,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="243" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B3" s="243">
         <v>1</v>
@@ -42594,7 +42625,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="243" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B4" s="243">
         <v>1</v>
@@ -42639,7 +42670,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="243" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B5" s="243">
         <v>1</v>
@@ -42684,7 +42715,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="243" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B6" s="243">
         <v>1</v>
@@ -42729,7 +42760,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="243" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B7" s="243">
         <v>1</v>
@@ -42774,7 +42805,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="243" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B8" s="243">
         <v>1</v>
@@ -42819,7 +42850,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="243" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B9" s="243">
         <v>1</v>
@@ -42864,7 +42895,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="243" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B10" s="243">
         <v>1</v>
@@ -42909,7 +42940,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="243" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B11" s="243">
         <v>2</v>
@@ -42954,7 +42985,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="243" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B12" s="243">
         <v>2</v>
@@ -42999,7 +43030,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="243" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B13" s="243">
         <v>2</v>
@@ -43044,7 +43075,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="243" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B14" s="243">
         <v>2</v>
@@ -43089,7 +43120,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="243" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B15" s="243">
         <v>2</v>
@@ -43134,7 +43165,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="243" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B16" s="243">
         <v>2</v>
@@ -43179,7 +43210,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="243" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B17" s="243">
         <v>2</v>
@@ -43224,7 +43255,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="243" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B18" s="243">
         <v>2</v>
@@ -43269,7 +43300,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="243" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B19" s="243">
         <v>2</v>
@@ -43314,7 +43345,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="243" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B20" s="243">
         <v>3</v>
@@ -43359,7 +43390,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="243" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B21" s="243">
         <v>3</v>
@@ -43404,7 +43435,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="243" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B22" s="243">
         <v>3</v>
@@ -43449,7 +43480,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="243" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B23" s="243">
         <v>3</v>
@@ -43494,7 +43525,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="243" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B24" s="243">
         <v>3</v>
@@ -43539,7 +43570,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="243" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B25" s="243">
         <v>3</v>
@@ -43584,7 +43615,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="243" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B26" s="243">
         <v>3</v>
@@ -43629,7 +43660,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="243" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B27" s="243">
         <v>3</v>
@@ -43674,7 +43705,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="243" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B28" s="243">
         <v>3</v>
@@ -43719,7 +43750,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="243" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B29" s="243">
         <v>4</v>
@@ -43764,7 +43795,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="243" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B30" s="243">
         <v>4</v>
@@ -43809,7 +43840,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="243" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B31" s="243">
         <v>4</v>
@@ -43854,7 +43885,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="243" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B32" s="243">
         <v>4</v>
@@ -43899,7 +43930,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="243" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B33" s="243">
         <v>4</v>
@@ -43944,7 +43975,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="243" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B34" s="243">
         <v>4</v>
@@ -43989,7 +44020,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="243" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B35" s="243">
         <v>4</v>
@@ -44034,7 +44065,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="243" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B36" s="243">
         <v>4</v>
@@ -44079,7 +44110,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="243" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B37" s="243">
         <v>4</v>
@@ -44331,11 +44362,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20077FD7-1EC0-41E4-96B7-2075AF4FD95D}">
-  <dimension ref="B2:BO76"/>
+  <dimension ref="B2:BO78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G38" sqref="G38"/>
+      <selection pane="topRight" activeCell="AM30" sqref="AM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44458,18 +44489,18 @@
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
-      <c r="F5" s="272" t="s">
+      <c r="F5" s="273" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273" t="s">
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="274" t="s">
         <v>178</v>
       </c>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
       <c r="N5" s="162"/>
       <c r="O5" s="162"/>
       <c r="P5" s="178"/>
@@ -44478,26 +44509,26 @@
       <c r="S5" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="T5" s="266" t="s">
+      <c r="T5" s="267" t="s">
         <v>141</v>
       </c>
-      <c r="U5" s="266"/>
-      <c r="V5" s="266"/>
-      <c r="W5" s="266"/>
-      <c r="X5" s="266"/>
-      <c r="Y5" s="266"/>
-      <c r="Z5" s="266"/>
-      <c r="AA5" s="266"/>
-      <c r="AB5" s="266"/>
-      <c r="AC5" s="266"/>
-      <c r="AD5" s="266"/>
-      <c r="AE5" s="266"/>
-      <c r="AF5" s="266"/>
-      <c r="AG5" s="266"/>
-      <c r="AH5" s="266"/>
-      <c r="AI5" s="266"/>
-      <c r="AJ5" s="266"/>
-      <c r="AK5" s="266"/>
+      <c r="U5" s="267"/>
+      <c r="V5" s="267"/>
+      <c r="W5" s="267"/>
+      <c r="X5" s="267"/>
+      <c r="Y5" s="267"/>
+      <c r="Z5" s="267"/>
+      <c r="AA5" s="267"/>
+      <c r="AB5" s="267"/>
+      <c r="AC5" s="267"/>
+      <c r="AD5" s="267"/>
+      <c r="AE5" s="267"/>
+      <c r="AF5" s="267"/>
+      <c r="AG5" s="267"/>
+      <c r="AH5" s="267"/>
+      <c r="AI5" s="267"/>
+      <c r="AJ5" s="267"/>
+      <c r="AK5" s="267"/>
       <c r="AL5" s="144"/>
       <c r="AM5" s="174"/>
       <c r="AN5" s="219"/>
@@ -44510,17 +44541,17 @@
     </row>
     <row r="6" spans="2:46">
       <c r="B6" s="25"/>
-      <c r="C6" s="275"/>
-      <c r="D6" s="275"/>
-      <c r="E6" s="276"/>
-      <c r="F6" s="270" t="s">
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
-      <c r="K6" s="271"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="272"/>
+      <c r="I6" s="272"/>
+      <c r="J6" s="272"/>
+      <c r="K6" s="272"/>
       <c r="L6" s="113"/>
       <c r="M6" s="111"/>
       <c r="N6" s="161"/>
@@ -44528,13 +44559,13 @@
       <c r="P6" s="177"/>
       <c r="Q6" s="212"/>
       <c r="R6" s="236"/>
-      <c r="S6" s="270" t="s">
+      <c r="S6" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="271"/>
-      <c r="U6" s="271"/>
-      <c r="V6" s="271"/>
-      <c r="W6" s="271"/>
+      <c r="T6" s="272"/>
+      <c r="U6" s="272"/>
+      <c r="V6" s="272"/>
+      <c r="W6" s="272"/>
       <c r="X6" s="136"/>
       <c r="Y6" s="148"/>
       <c r="Z6" s="163"/>
@@ -44543,17 +44574,17 @@
       <c r="AC6" s="163"/>
       <c r="AD6" s="163"/>
       <c r="AE6" s="163"/>
-      <c r="AF6" s="271" t="s">
+      <c r="AF6" s="272" t="s">
         <v>125</v>
       </c>
-      <c r="AG6" s="271"/>
-      <c r="AH6" s="271"/>
-      <c r="AI6" s="271"/>
-      <c r="AJ6" s="267" t="s">
+      <c r="AG6" s="272"/>
+      <c r="AH6" s="272"/>
+      <c r="AI6" s="272"/>
+      <c r="AJ6" s="268" t="s">
         <v>176</v>
       </c>
-      <c r="AK6" s="268"/>
-      <c r="AL6" s="269"/>
+      <c r="AK6" s="269"/>
+      <c r="AL6" s="270"/>
       <c r="AM6" s="120"/>
       <c r="AN6" s="219"/>
       <c r="AO6" s="220"/>
@@ -44599,10 +44630,10 @@
         <v>210</v>
       </c>
       <c r="P7" s="177" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="212" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R7" s="236"/>
       <c r="S7" s="114" t="s">
@@ -44669,22 +44700,22 @@
         <v>208</v>
       </c>
       <c r="AN7" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO7" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP7" s="224" t="s">
         <v>223</v>
       </c>
-      <c r="AP7" s="224" t="s">
-        <v>224</v>
-      </c>
       <c r="AQ7" s="224" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR7" s="263" t="s">
-        <v>237</v>
-      </c>
-      <c r="AS7" s="264"/>
-      <c r="AT7" s="264"/>
+        <v>227</v>
+      </c>
+      <c r="AR7" s="264" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS7" s="265"/>
+      <c r="AT7" s="265"/>
     </row>
     <row r="8" spans="2:46" ht="19.5" customHeight="1" thickBot="1">
       <c r="B8" s="25"/>
@@ -44725,20 +44756,20 @@
         <v>192</v>
       </c>
       <c r="O8" s="119" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="P8" s="119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="119" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="R8" s="119"/>
       <c r="S8" s="118" t="s">
         <v>47</v>
       </c>
       <c r="T8" s="119" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="U8" s="117" t="s">
         <v>146</v>
@@ -44796,28 +44827,28 @@
         <v>206</v>
       </c>
       <c r="AM8" s="218" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN8" s="135" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO8" s="135" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AP8" s="135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AQ8" s="135" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AR8" s="239" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS8" s="239" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT8" s="239" t="s">
         <v>240</v>
-      </c>
-      <c r="AS8" s="239" t="s">
-        <v>241</v>
-      </c>
-      <c r="AT8" s="239" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="9" spans="2:46" ht="16.5" customHeight="1">
@@ -45049,18 +45080,21 @@
         <f t="shared" si="1"/>
         <v>153174.60317460314</v>
       </c>
-      <c r="AE10" s="27">
+      <c r="AE10" s="140">
         <f t="shared" si="1"/>
         <v>197058.82352941175</v>
       </c>
-      <c r="AF10" s="73">
-        <v>116</v>
-      </c>
-      <c r="AG10" s="74">
-        <v>116</v>
-      </c>
-      <c r="AH10" s="74">
-        <v>116</v>
+      <c r="AF10" s="27">
+        <f>AF13/(3*(1-2*AF14))</f>
+        <v>123118.27956989245</v>
+      </c>
+      <c r="AG10" s="27">
+        <f t="shared" ref="AG10:AH10" si="2">AG13/(3*(1-2*AG14))</f>
+        <v>123118.27956989245</v>
+      </c>
+      <c r="AH10" s="27">
+        <f t="shared" si="2"/>
+        <v>123118.27956989245</v>
       </c>
       <c r="AI10" s="27">
         <f>AI13/(3*(1-2*AI14))</f>
@@ -45122,31 +45156,31 @@
         <v>26923.08</v>
       </c>
       <c r="K11" s="27">
-        <f t="shared" ref="K11:Q11" si="2">K13/(2*(1+K14))</f>
+        <f t="shared" ref="K11:Q11" si="3">K13/(2*(1+K14))</f>
         <v>24427.480916030534</v>
       </c>
       <c r="L11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26691.729323308271</v>
       </c>
       <c r="M11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26954.887218045111</v>
       </c>
       <c r="N11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26691.729323308271</v>
       </c>
       <c r="O11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27692.307692307691</v>
       </c>
       <c r="P11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230769.23076923075</v>
       </c>
       <c r="Q11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>273496.24060150376</v>
       </c>
       <c r="R11" s="27"/>
@@ -45158,47 +45192,47 @@
         <v>80769.230769230766</v>
       </c>
       <c r="U11" s="27">
-        <f t="shared" ref="U11:AE11" si="3">U13/(2*(1+U14))</f>
+        <f t="shared" ref="U11:AE11" si="4">U13/(2*(1+U14))</f>
         <v>78947.368421052626</v>
       </c>
       <c r="V11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78947.368421052626</v>
       </c>
       <c r="W11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78947.368421052626</v>
       </c>
       <c r="X11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76315.789473684214</v>
       </c>
       <c r="Y11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75187.969924812031</v>
       </c>
       <c r="Z11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80769.230769230766</v>
       </c>
       <c r="AA11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72093.023255813954</v>
       </c>
       <c r="AB11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79844.961240310076</v>
       </c>
       <c r="AC11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80769.230769230766</v>
       </c>
       <c r="AD11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74806.201550387588</v>
       </c>
       <c r="AE11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75563.909774436092</v>
       </c>
       <c r="AF11" s="73">
@@ -45423,13 +45457,13 @@
       <c r="AE13" s="27">
         <v>201000</v>
       </c>
-      <c r="AF13" s="73">
+      <c r="AF13" s="76">
         <v>114500</v>
       </c>
-      <c r="AG13" s="74">
+      <c r="AG13" s="75">
         <v>114500</v>
       </c>
-      <c r="AH13" s="74">
+      <c r="AH13" s="75">
         <v>114500</v>
       </c>
       <c r="AI13" s="27">
@@ -45698,7 +45732,7 @@
       <c r="M16" s="46">
         <v>960000000</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="128">
         <v>900000000</v>
       </c>
       <c r="O16" s="102">
@@ -47156,8 +47190,8 @@
       <c r="AH29" s="74"/>
       <c r="AI29" s="25"/>
       <c r="AJ29" s="121"/>
-      <c r="AR29">
-        <v>18.61</v>
+      <c r="AR29" s="263">
+        <v>-11120</v>
       </c>
       <c r="AS29">
         <v>9.68</v>
@@ -47220,8 +47254,8 @@
       <c r="AH30" s="74"/>
       <c r="AI30" s="25"/>
       <c r="AJ30" s="121"/>
-      <c r="AR30">
-        <v>28240</v>
+      <c r="AR30" s="263">
+        <v>766800</v>
       </c>
       <c r="AS30">
         <v>6310</v>
@@ -47284,8 +47318,8 @@
       <c r="AH31" s="74"/>
       <c r="AI31" s="25"/>
       <c r="AJ31" s="121"/>
-      <c r="AR31">
-        <v>204.8</v>
+      <c r="AR31" s="263">
+        <v>11340</v>
       </c>
       <c r="AS31">
         <v>178.8</v>
@@ -47348,8 +47382,8 @@
       <c r="AH32" s="74"/>
       <c r="AI32" s="25"/>
       <c r="AJ32" s="121"/>
-      <c r="AR32">
-        <v>12900</v>
+      <c r="AR32" s="263">
+        <v>782300</v>
       </c>
       <c r="AS32">
         <v>10490</v>
@@ -47361,10 +47395,10 @@
     <row r="33" spans="2:67">
       <c r="B33" s="25"/>
       <c r="C33" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="50"/>
@@ -47399,7 +47433,7 @@
       <c r="AI33" s="25"/>
       <c r="AJ33" s="121"/>
       <c r="AR33">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AS33">
         <v>12.24</v>
@@ -47411,10 +47445,10 @@
     <row r="34" spans="2:67">
       <c r="B34" s="25"/>
       <c r="C34" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="50"/>
@@ -47449,7 +47483,7 @@
       <c r="AI34" s="25"/>
       <c r="AJ34" s="121"/>
       <c r="AR34">
-        <v>67.260000000000005</v>
+        <v>0</v>
       </c>
       <c r="AS34">
         <v>11.11</v>
@@ -47642,7 +47676,7 @@
     <row r="38" spans="2:67">
       <c r="B38" s="25"/>
       <c r="C38" s="89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>132</v>
@@ -48461,13 +48495,15 @@
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="56"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="283">
+      <c r="F49" s="58">
+        <v>22</v>
+      </c>
+      <c r="G49" s="284">
         <v>1</v>
       </c>
-      <c r="H49" s="283"/>
-      <c r="I49" s="283"/>
-      <c r="J49" s="284"/>
+      <c r="H49" s="284"/>
+      <c r="I49" s="284"/>
+      <c r="J49" s="285"/>
       <c r="K49" s="106">
         <v>9</v>
       </c>
@@ -48486,7 +48522,9 @@
       <c r="P49" s="106">
         <v>19</v>
       </c>
-      <c r="Q49" s="106"/>
+      <c r="Q49" s="106">
+        <v>23</v>
+      </c>
       <c r="R49" s="106"/>
       <c r="S49" s="97">
         <v>2</v>
@@ -48494,11 +48532,11 @@
       <c r="T49" s="98">
         <v>4</v>
       </c>
-      <c r="U49" s="281">
+      <c r="U49" s="282">
         <v>5</v>
       </c>
-      <c r="V49" s="281"/>
-      <c r="W49" s="281"/>
+      <c r="V49" s="282"/>
+      <c r="W49" s="282"/>
       <c r="X49" s="149">
         <v>8</v>
       </c>
@@ -48508,38 +48546,38 @@
       <c r="Z49" s="159">
         <v>13</v>
       </c>
-      <c r="AA49" s="281">
+      <c r="AA49" s="282">
         <v>14</v>
       </c>
-      <c r="AB49" s="281"/>
-      <c r="AC49" s="281"/>
-      <c r="AD49" s="281"/>
+      <c r="AB49" s="282"/>
+      <c r="AC49" s="282"/>
+      <c r="AD49" s="282"/>
       <c r="AE49" s="173">
         <v>15</v>
       </c>
-      <c r="AF49" s="281">
+      <c r="AF49" s="282">
         <v>3</v>
       </c>
-      <c r="AG49" s="281"/>
-      <c r="AH49" s="281"/>
+      <c r="AG49" s="282"/>
+      <c r="AH49" s="282"/>
       <c r="AI49" s="109">
         <v>6</v>
       </c>
-      <c r="AJ49" s="278">
+      <c r="AJ49" s="279">
         <v>7</v>
       </c>
-      <c r="AK49" s="279"/>
+      <c r="AK49" s="280"/>
       <c r="AL49" s="143">
         <v>16</v>
       </c>
       <c r="AM49" s="180">
         <v>18</v>
       </c>
-      <c r="AR49" s="265">
+      <c r="AR49" s="266">
         <v>21</v>
       </c>
-      <c r="AS49" s="265"/>
-      <c r="AT49" s="265"/>
+      <c r="AS49" s="266"/>
+      <c r="AT49" s="266"/>
     </row>
     <row r="50" spans="2:51">
       <c r="B50" s="25"/>
@@ -48649,7 +48687,7 @@
         <v>117</v>
       </c>
       <c r="AN50" s="221" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AO50" s="222" t="s">
         <v>185</v>
@@ -48658,10 +48696,10 @@
         <v>117</v>
       </c>
       <c r="AS50" s="242" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AT50" s="242" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:51">
@@ -48820,25 +48858,25 @@
       <c r="B55" s="25">
         <v>2</v>
       </c>
-      <c r="C55" s="282" t="s">
+      <c r="C55" s="283" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="282"/>
-      <c r="E55" s="282"/>
-      <c r="F55" s="282"/>
-      <c r="G55" s="282"/>
-      <c r="H55" s="282"/>
-      <c r="I55" s="282"/>
-      <c r="J55" s="282"/>
-      <c r="K55" s="282"/>
-      <c r="L55" s="282"/>
-      <c r="M55" s="282"/>
-      <c r="N55" s="282"/>
-      <c r="O55" s="282"/>
-      <c r="P55" s="282"/>
-      <c r="Q55" s="282"/>
-      <c r="R55" s="282"/>
-      <c r="S55" s="282"/>
+      <c r="D55" s="283"/>
+      <c r="E55" s="283"/>
+      <c r="F55" s="283"/>
+      <c r="G55" s="283"/>
+      <c r="H55" s="283"/>
+      <c r="I55" s="283"/>
+      <c r="J55" s="283"/>
+      <c r="K55" s="283"/>
+      <c r="L55" s="283"/>
+      <c r="M55" s="283"/>
+      <c r="N55" s="283"/>
+      <c r="O55" s="283"/>
+      <c r="P55" s="283"/>
+      <c r="Q55" s="283"/>
+      <c r="R55" s="283"/>
+      <c r="S55" s="283"/>
       <c r="T55" s="79"/>
       <c r="U55" s="99"/>
       <c r="V55" s="99"/>
@@ -48861,16 +48899,16 @@
       <c r="B56" s="25">
         <v>3</v>
       </c>
-      <c r="C56" s="282" t="s">
+      <c r="C56" s="283" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="282"/>
-      <c r="E56" s="282"/>
-      <c r="F56" s="282"/>
-      <c r="G56" s="282"/>
-      <c r="H56" s="282"/>
-      <c r="I56" s="282"/>
-      <c r="J56" s="282"/>
+      <c r="D56" s="283"/>
+      <c r="E56" s="283"/>
+      <c r="F56" s="283"/>
+      <c r="G56" s="283"/>
+      <c r="H56" s="283"/>
+      <c r="I56" s="283"/>
+      <c r="J56" s="283"/>
       <c r="K56" s="108"/>
       <c r="L56" s="108"/>
       <c r="M56" s="108"/>
@@ -48943,26 +48981,26 @@
       <c r="B58" s="25">
         <v>5</v>
       </c>
-      <c r="C58" s="280" t="s">
+      <c r="C58" s="281" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="280"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="280"/>
-      <c r="G58" s="280"/>
-      <c r="H58" s="280"/>
-      <c r="I58" s="280"/>
-      <c r="J58" s="280"/>
-      <c r="K58" s="280"/>
-      <c r="L58" s="280"/>
-      <c r="M58" s="280"/>
-      <c r="N58" s="280"/>
-      <c r="O58" s="280"/>
-      <c r="P58" s="280"/>
-      <c r="Q58" s="280"/>
-      <c r="R58" s="280"/>
-      <c r="S58" s="280"/>
-      <c r="T58" s="280"/>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="281"/>
+      <c r="G58" s="281"/>
+      <c r="H58" s="281"/>
+      <c r="I58" s="281"/>
+      <c r="J58" s="281"/>
+      <c r="K58" s="281"/>
+      <c r="L58" s="281"/>
+      <c r="M58" s="281"/>
+      <c r="N58" s="281"/>
+      <c r="O58" s="281"/>
+      <c r="P58" s="281"/>
+      <c r="Q58" s="281"/>
+      <c r="R58" s="281"/>
+      <c r="S58" s="281"/>
+      <c r="T58" s="281"/>
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
@@ -48984,26 +49022,26 @@
       <c r="B59" s="25">
         <v>6</v>
       </c>
-      <c r="C59" s="274" t="s">
+      <c r="C59" s="275" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="274"/>
-      <c r="E59" s="274"/>
-      <c r="F59" s="274"/>
-      <c r="G59" s="274"/>
-      <c r="H59" s="274"/>
-      <c r="I59" s="274"/>
-      <c r="J59" s="274"/>
-      <c r="K59" s="274"/>
-      <c r="L59" s="274"/>
-      <c r="M59" s="274"/>
-      <c r="N59" s="274"/>
-      <c r="O59" s="274"/>
-      <c r="P59" s="274"/>
-      <c r="Q59" s="274"/>
-      <c r="R59" s="274"/>
-      <c r="S59" s="274"/>
-      <c r="T59" s="274"/>
+      <c r="D59" s="275"/>
+      <c r="E59" s="275"/>
+      <c r="F59" s="275"/>
+      <c r="G59" s="275"/>
+      <c r="H59" s="275"/>
+      <c r="I59" s="275"/>
+      <c r="J59" s="275"/>
+      <c r="K59" s="275"/>
+      <c r="L59" s="275"/>
+      <c r="M59" s="275"/>
+      <c r="N59" s="275"/>
+      <c r="O59" s="275"/>
+      <c r="P59" s="275"/>
+      <c r="Q59" s="275"/>
+      <c r="R59" s="275"/>
+      <c r="S59" s="275"/>
+      <c r="T59" s="275"/>
       <c r="U59" s="25"/>
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
@@ -49025,29 +49063,29 @@
       <c r="B60" s="59">
         <v>6</v>
       </c>
-      <c r="C60" s="280" t="s">
+      <c r="C60" s="281" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="280"/>
-      <c r="E60" s="280"/>
-      <c r="F60" s="280"/>
-      <c r="G60" s="280"/>
-      <c r="H60" s="280"/>
-      <c r="I60" s="280"/>
-      <c r="J60" s="280"/>
-      <c r="K60" s="280"/>
-      <c r="L60" s="280"/>
-      <c r="M60" s="280"/>
-      <c r="N60" s="280"/>
-      <c r="O60" s="280"/>
-      <c r="P60" s="280"/>
-      <c r="Q60" s="280"/>
-      <c r="R60" s="280"/>
-      <c r="S60" s="280"/>
-      <c r="T60" s="280"/>
-      <c r="U60" s="280"/>
-      <c r="V60" s="280"/>
-      <c r="W60" s="280"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="281"/>
+      <c r="G60" s="281"/>
+      <c r="H60" s="281"/>
+      <c r="I60" s="281"/>
+      <c r="J60" s="281"/>
+      <c r="K60" s="281"/>
+      <c r="L60" s="281"/>
+      <c r="M60" s="281"/>
+      <c r="N60" s="281"/>
+      <c r="O60" s="281"/>
+      <c r="P60" s="281"/>
+      <c r="Q60" s="281"/>
+      <c r="R60" s="281"/>
+      <c r="S60" s="281"/>
+      <c r="T60" s="281"/>
+      <c r="U60" s="281"/>
+      <c r="V60" s="281"/>
+      <c r="W60" s="281"/>
       <c r="X60" s="25"/>
       <c r="Y60" s="25"/>
       <c r="Z60" s="25"/>
@@ -49066,27 +49104,27 @@
       <c r="B61" s="59">
         <v>7</v>
       </c>
-      <c r="C61" s="277" t="s">
+      <c r="C61" s="278" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="277"/>
-      <c r="E61" s="277"/>
-      <c r="F61" s="277"/>
-      <c r="G61" s="277"/>
-      <c r="H61" s="277"/>
-      <c r="I61" s="277"/>
-      <c r="J61" s="277"/>
-      <c r="K61" s="277"/>
-      <c r="L61" s="277"/>
-      <c r="M61" s="277"/>
-      <c r="N61" s="277"/>
-      <c r="O61" s="277"/>
-      <c r="P61" s="277"/>
-      <c r="Q61" s="277"/>
-      <c r="R61" s="277"/>
-      <c r="S61" s="277"/>
-      <c r="T61" s="277"/>
-      <c r="U61" s="277"/>
+      <c r="D61" s="278"/>
+      <c r="E61" s="278"/>
+      <c r="F61" s="278"/>
+      <c r="G61" s="278"/>
+      <c r="H61" s="278"/>
+      <c r="I61" s="278"/>
+      <c r="J61" s="278"/>
+      <c r="K61" s="278"/>
+      <c r="L61" s="278"/>
+      <c r="M61" s="278"/>
+      <c r="N61" s="278"/>
+      <c r="O61" s="278"/>
+      <c r="P61" s="278"/>
+      <c r="Q61" s="278"/>
+      <c r="R61" s="278"/>
+      <c r="S61" s="278"/>
+      <c r="T61" s="278"/>
+      <c r="U61" s="278"/>
     </row>
     <row r="62" spans="2:51" ht="16.5">
       <c r="B62" s="59">
@@ -49192,7 +49230,7 @@
         <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -49200,7 +49238,7 @@
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -49208,7 +49246,7 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -49216,7 +49254,7 @@
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -49224,7 +49262,23 @@
         <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="59">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="59">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -49261,9 +49315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F425B10-5B6F-4D38-8EC8-85892A4FDDD6}">
   <dimension ref="B1:AZ48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI33" sqref="AI33"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49338,49 +49392,49 @@
     </row>
     <row r="2" spans="2:43">
       <c r="B2" s="25"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="286"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="287"/>
       <c r="E2" s="171"/>
-      <c r="F2" s="286" t="s">
+      <c r="F2" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="287"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
       <c r="P2" s="179"/>
-      <c r="Q2" s="285" t="s">
+      <c r="Q2" s="286" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="286"/>
-      <c r="U2" s="286"/>
-      <c r="V2" s="286"/>
-      <c r="W2" s="286"/>
-      <c r="X2" s="286"/>
-      <c r="Y2" s="286"/>
-      <c r="Z2" s="286"/>
-      <c r="AA2" s="286"/>
-      <c r="AB2" s="286"/>
-      <c r="AC2" s="287"/>
-      <c r="AD2" s="285" t="s">
+      <c r="R2" s="287"/>
+      <c r="S2" s="287"/>
+      <c r="T2" s="287"/>
+      <c r="U2" s="287"/>
+      <c r="V2" s="287"/>
+      <c r="W2" s="287"/>
+      <c r="X2" s="287"/>
+      <c r="Y2" s="287"/>
+      <c r="Z2" s="287"/>
+      <c r="AA2" s="287"/>
+      <c r="AB2" s="287"/>
+      <c r="AC2" s="288"/>
+      <c r="AD2" s="286" t="s">
         <v>125</v>
       </c>
-      <c r="AE2" s="286"/>
-      <c r="AF2" s="286"/>
-      <c r="AG2" s="286"/>
-      <c r="AH2" s="285" t="s">
+      <c r="AE2" s="287"/>
+      <c r="AF2" s="287"/>
+      <c r="AG2" s="287"/>
+      <c r="AH2" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="AI2" s="286"/>
-      <c r="AJ2" s="286"/>
-      <c r="AK2" s="286"/>
+      <c r="AI2" s="287"/>
+      <c r="AJ2" s="287"/>
+      <c r="AK2" s="287"/>
       <c r="AL2" s="217"/>
       <c r="AM2" s="217"/>
       <c r="AN2" s="217"/>
@@ -49390,8 +49444,8 @@
     </row>
     <row r="3" spans="2:43">
       <c r="B3" s="25"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="286"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="287"/>
       <c r="E3" s="171"/>
       <c r="F3" s="171" t="s">
         <v>50</v>
@@ -49424,7 +49478,7 @@
         <v>210</v>
       </c>
       <c r="P3" s="179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="190" t="s">
         <v>55</v>
@@ -49506,16 +49560,16 @@
         <v>M5</v>
       </c>
       <c r="AM3" s="240" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN3" s="240" t="s">
         <v>223</v>
       </c>
-      <c r="AN3" s="240" t="s">
-        <v>224</v>
-      </c>
       <c r="AO3" s="240" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AP3" s="214" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AQ3" s="25"/>
     </row>
@@ -49534,7 +49588,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="182" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H4" s="182" t="s">
         <v>58</v>
@@ -49563,7 +49617,7 @@
       </c>
       <c r="O4" s="182" t="str">
         <f>mat_param!O8</f>
-        <v>2024-T351</v>
+        <v>AA2024-T351</v>
       </c>
       <c r="P4" s="182" t="str">
         <f>mat_param!P8</f>
@@ -49786,147 +49840,147 @@
       <c r="B6" s="126"/>
       <c r="C6" s="183" t="str">
         <f>VLOOKUP(plots!AC3,mat_param!C9:C47,1,FALSE)</f>
-        <v>bulk modulus</v>
+        <v>density</v>
       </c>
       <c r="D6" s="185" t="str">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!D9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>K</v>
+        <v>rho</v>
       </c>
       <c r="E6" s="185" t="str">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!E9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>MPa</v>
+        <v>ton/mm3</v>
       </c>
       <c r="F6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!F9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>58333.33</v>
+        <v>2.7000000000000002E-9</v>
       </c>
       <c r="G6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!G9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>58333.33</v>
+        <v>2.7000000000000002E-9</v>
       </c>
       <c r="H6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!H9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>58333.33</v>
+        <v>2.7000000000000002E-9</v>
       </c>
       <c r="I6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!I9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>58333.33</v>
+        <v>2.7000000000000002E-9</v>
       </c>
       <c r="J6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!J9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>58333.33</v>
+        <v>2.7000000000000002E-9</v>
       </c>
       <c r="K6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!K9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>56140.350877192977</v>
+        <v>2.7099999999999999E-9</v>
       </c>
       <c r="L6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!L9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>69607.843137254895</v>
+        <v>2.7099999999999999E-9</v>
       </c>
       <c r="M6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!M9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>70294.117647058825</v>
+        <v>2.81E-9</v>
       </c>
       <c r="N6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!N9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>69607.843137254895</v>
+        <v>2.6599999999999999E-9</v>
       </c>
       <c r="O6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!O9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>59999.999999999993</v>
+        <v>2.7700000000000002E-9</v>
       </c>
       <c r="P6" s="207">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!P9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>499999.99999999994</v>
+        <v>3.0273000000000001E-9</v>
       </c>
       <c r="Q6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!S9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>205880</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="R6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!T9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>174999.99999999997</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="S6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!U9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>205882.35294117648</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="T6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!V9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>205882.35294117648</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="U6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!W9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>205882.35294117648</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="V6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!X9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>199019.60784313726</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="W6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!Y9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>196078.43137254901</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="X6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!Z9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>174999.99999999997</v>
+        <v>7.8000000000000004E-9</v>
       </c>
       <c r="Y6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AA9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>147619.0476190476</v>
+        <v>7.8700000000000003E-9</v>
       </c>
       <c r="Z6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AB9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>163492.06349206346</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="AA6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AC9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>174999.99999999997</v>
+        <v>7.8100000000000001E-9</v>
       </c>
       <c r="AB6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AD9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>153174.60317460314</v>
+        <v>8.0000000000000005E-9</v>
       </c>
       <c r="AC6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AE9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>197058.82352941175</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="AD6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AF9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>116</v>
+        <v>4.4299999999999998E-9</v>
       </c>
       <c r="AE6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AG9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>116</v>
+        <v>4.5500000000000002E-9</v>
       </c>
       <c r="AF6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AH9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>116</v>
+        <v>4.5500000000000002E-9</v>
       </c>
       <c r="AG6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AI9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>117881.03958333335</v>
+        <v>4.4299999999999998E-9</v>
       </c>
       <c r="AH6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AJ9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>129166.66666666669</v>
+        <v>8.9600000000000005E-9</v>
       </c>
       <c r="AI6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AK9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>164285.71428571426</v>
+        <v>7.8899999999999998E-9</v>
       </c>
       <c r="AJ6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AL9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>197458.60805860805</v>
+        <v>7.8899999999999998E-9</v>
       </c>
       <c r="AK6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AM9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>310000</v>
+        <v>1.7599999999999999E-8</v>
       </c>
       <c r="AL6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AN9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>0</v>
+        <v>1.5799999999999999E-9</v>
       </c>
       <c r="AM6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AO9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
@@ -49938,11 +49992,11 @@
       </c>
       <c r="AO6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AQ9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>129166.66666666669</v>
+        <v>8960</v>
       </c>
       <c r="AP6" s="185">
         <f>VLOOKUP($C$6,mat_param!$C$9:$BE$47,COLUMN(mat_param!AR9)-COLUMN(mat_param!$C$9)+1,FALSE)</f>
-        <v>58333.33</v>
+        <v>2.7000000000000002E-9</v>
       </c>
       <c r="AQ6" s="25"/>
     </row>
@@ -50094,9 +50148,9 @@
       <c r="AM8" s="59"/>
       <c r="AN8" s="59"/>
       <c r="AO8" s="59"/>
-      <c r="AP8" s="103">
-        <f>AVERAGE(7.4197,7.36947,7.42299)</f>
-        <v>7.4040533333333327</v>
+      <c r="AP8" s="25">
+        <f>AVERAGE(7.49152,7.49861,7.47998,7.4108)</f>
+        <v>7.4702275</v>
       </c>
       <c r="AQ8" s="25"/>
     </row>
@@ -50187,7 +50241,7 @@
         <v>16.68</v>
       </c>
       <c r="AD9" s="103">
-        <f t="shared" ref="AD9:AP9" si="2">AD8*2</f>
+        <f t="shared" ref="AD9:AO9" si="2">AD8*2</f>
         <v>11.266354999999999</v>
       </c>
       <c r="AE9" s="103">
@@ -50229,8 +50283,8 @@
         <v>0</v>
       </c>
       <c r="AP9" s="187">
-        <f t="shared" si="2"/>
-        <v>14.808106666666665</v>
+        <f>AP8*2</f>
+        <v>14.940455</v>
       </c>
       <c r="AQ9" s="25"/>
     </row>
@@ -50340,9 +50394,9 @@
       <c r="AM10" s="59"/>
       <c r="AN10" s="59"/>
       <c r="AO10" s="59"/>
-      <c r="AP10" s="103">
-        <f>AVERAGE(47.5393,47.5396,48.2624)</f>
-        <v>47.780433333333328</v>
+      <c r="AP10" s="25">
+        <f>AVERAGE(49.4484,48.797,48.9093,49.5893)</f>
+        <v>49.186</v>
       </c>
       <c r="AQ10" s="25"/>
     </row>
@@ -50544,9 +50598,9 @@
       <c r="AN12" s="188"/>
       <c r="AO12" s="188"/>
       <c r="AP12" s="102">
-        <v>1.0700000000000001E-7</v>
-      </c>
-      <c r="AQ12" s="25"/>
+        <v>1.06E-7</v>
+      </c>
+      <c r="AQ12" s="102"/>
     </row>
     <row r="13" spans="2:43">
       <c r="B13" s="126" t="s">
@@ -50681,7 +50735,7 @@
       </c>
       <c r="AP13" s="189">
         <f t="shared" si="5"/>
-        <v>8.7704918032786896</v>
+        <v>8.6885245901639347</v>
       </c>
       <c r="AQ13" s="25"/>
     </row>
@@ -50785,7 +50839,7 @@
       <c r="AP14" s="102">
         <v>6330000</v>
       </c>
-      <c r="AQ14" s="25"/>
+      <c r="AQ14" s="102"/>
     </row>
     <row r="15" spans="2:43">
       <c r="B15" s="126" t="s">
@@ -50885,7 +50939,7 @@
       <c r="AN15" s="59"/>
       <c r="AO15" s="59"/>
       <c r="AP15" s="25">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AQ15" s="25"/>
     </row>
@@ -50894,7 +50948,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="183" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="184"/>
@@ -51003,14 +51057,14 @@
       <c r="AP16" s="188">
         <v>27400000</v>
       </c>
-      <c r="AQ16" s="25"/>
+      <c r="AQ16" s="188"/>
     </row>
     <row r="17" spans="2:43">
       <c r="B17" s="126" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="183" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="184"/>
@@ -51103,14 +51157,14 @@
       <c r="AN17" s="25"/>
       <c r="AO17" s="25"/>
       <c r="AP17" s="102">
-        <v>28700000</v>
-      </c>
-      <c r="AQ17" s="25"/>
+        <v>28800000</v>
+      </c>
+      <c r="AQ17" s="102"/>
     </row>
     <row r="18" spans="2:43">
       <c r="B18" s="59"/>
       <c r="C18" s="183" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -51251,14 +51305,14 @@
       <c r="AO18" s="188"/>
       <c r="AP18" s="188">
         <f t="shared" si="6"/>
-        <v>1300000</v>
+        <v>1400000</v>
       </c>
       <c r="AQ18" s="25"/>
     </row>
     <row r="19" spans="2:43">
       <c r="B19" s="59"/>
       <c r="C19" s="183" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D19" s="223"/>
       <c r="E19" s="223"/>
@@ -51399,14 +51453,14 @@
       <c r="AO19" s="188"/>
       <c r="AP19" s="228">
         <f t="shared" si="7"/>
-        <v>4.7445255474452548</v>
+        <v>5.1094890510948909</v>
       </c>
       <c r="AQ19" s="25"/>
     </row>
     <row r="20" spans="2:43">
       <c r="B20" s="59"/>
       <c r="C20" s="225" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D20" s="184"/>
       <c r="E20" s="184"/>
@@ -51554,7 +51608,7 @@
     <row r="21" spans="2:43">
       <c r="B21" s="59"/>
       <c r="C21" s="183" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D21" s="184"/>
       <c r="E21" s="184"/>
@@ -51643,14 +51697,14 @@
       <c r="AN21" s="188"/>
       <c r="AO21" s="188"/>
       <c r="AP21" s="102">
-        <v>28300000</v>
-      </c>
-      <c r="AQ21" s="25"/>
+        <v>28400000</v>
+      </c>
+      <c r="AQ21" s="102"/>
     </row>
     <row r="22" spans="2:43">
       <c r="B22" s="59"/>
       <c r="C22" s="183" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D22" s="184"/>
       <c r="E22" s="184"/>
@@ -51791,14 +51845,14 @@
       <c r="AO22" s="188"/>
       <c r="AP22" s="188">
         <f t="shared" si="9"/>
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="AQ22" s="25"/>
     </row>
     <row r="23" spans="2:43">
       <c r="B23" s="25"/>
       <c r="C23" s="183" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -51938,20 +51992,20 @@
       <c r="AO23" s="188"/>
       <c r="AP23" s="103">
         <f t="shared" si="10"/>
-        <v>3.2846715328467155</v>
+        <v>3.6496350364963499</v>
       </c>
       <c r="AQ23" s="25"/>
     </row>
     <row r="24" spans="2:43">
       <c r="B24" s="25"/>
       <c r="C24" s="183" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
@@ -51964,7 +52018,7 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
       <c r="R24" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
@@ -51981,13 +52035,13 @@
       <c r="AE24" s="25"/>
       <c r="AF24" s="25"/>
       <c r="AG24" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AH24" s="25"/>
       <c r="AI24" s="25"/>
       <c r="AJ24" s="25"/>
       <c r="AK24" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL24" s="25"/>
       <c r="AM24" s="188"/>
@@ -52220,7 +52274,7 @@
     </row>
     <row r="30" spans="2:43">
       <c r="C30" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -52248,16 +52302,16 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="253" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="253" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" s="253" t="s">
+        <v>266</v>
+      </c>
+      <c r="I31" s="253" t="s">
         <v>267</v>
-      </c>
-      <c r="G31" s="253" t="s">
-        <v>268</v>
-      </c>
-      <c r="H31" s="253" t="s">
-        <v>269</v>
-      </c>
-      <c r="I31" s="253" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="32" spans="2:43">
@@ -52269,7 +52323,7 @@
         <v>41</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>7.31</v>
       </c>
       <c r="G32">
         <v>8.24</v>
@@ -52291,7 +52345,7 @@
       </c>
       <c r="F33">
         <f>2*F32</f>
-        <v>0</v>
+        <v>14.62</v>
       </c>
       <c r="G33">
         <f t="shared" ref="G33:I33" si="11">2*G32</f>
@@ -52315,7 +52369,7 @@
         <v>41</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>24.28</v>
       </c>
       <c r="G34">
         <v>48.63</v>
@@ -52398,8 +52452,8 @@
       <c r="E38" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="F38">
-        <v>0</v>
+      <c r="F38" s="128">
+        <v>6150000</v>
       </c>
       <c r="G38" s="128">
         <v>6090000</v>
@@ -52437,63 +52491,63 @@
     </row>
     <row r="40" spans="3:52">
       <c r="C40" s="183" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="184"/>
     </row>
     <row r="41" spans="3:52">
       <c r="C41" s="183" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="184"/>
     </row>
     <row r="42" spans="3:52">
       <c r="C42" s="183" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
     </row>
     <row r="43" spans="3:52">
       <c r="C43" s="183" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D43" s="223"/>
       <c r="E43" s="223"/>
     </row>
     <row r="44" spans="3:52">
       <c r="C44" s="225" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D44" s="184"/>
       <c r="E44" s="184"/>
     </row>
     <row r="45" spans="3:52">
       <c r="C45" s="183" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D45" s="184"/>
       <c r="E45" s="184"/>
     </row>
     <row r="46" spans="3:52">
       <c r="C46" s="183" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D46" s="184"/>
       <c r="E46" s="184"/>
     </row>
     <row r="47" spans="3:52">
       <c r="C47" s="183" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
     </row>
     <row r="48" spans="3:52">
       <c r="C48" s="183" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -52586,8 +52640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20CB03-FDC1-47B9-AF99-E205AFF1D2E2}">
   <dimension ref="C2:CB50"/>
   <sheetViews>
-    <sheetView topLeftCell="AX3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BB24" sqref="BB24"/>
+    <sheetView topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CB26" sqref="CB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52625,7 +52679,7 @@
       </c>
       <c r="M3" s="10"/>
       <c r="AC3" s="145" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="6"/>
@@ -52653,34 +52707,34 @@
     <row r="7" spans="3:67">
       <c r="AP7" t="str">
         <f>sim_results!C6&amp; " and debris cloud diamter"</f>
-        <v>bulk modulus and debris cloud diamter</v>
+        <v>density and debris cloud diamter</v>
       </c>
     </row>
     <row r="10" spans="3:67">
       <c r="AD10" t="str">
         <f>sim_results!C6&amp; " and target hole diameter"</f>
-        <v>bulk modulus and target hole diameter</v>
+        <v>density and target hole diameter</v>
       </c>
     </row>
     <row r="11" spans="3:67">
       <c r="BD11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BE11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="3:67">
       <c r="AD12" t="str">
         <f>CONCATENATE(sim_results!D6," (",sim_results!E6,")")</f>
-        <v>K (MPa)</v>
+        <v>rho (ton/mm3)</v>
       </c>
       <c r="BC12" t="s">
         <v>51</v>
       </c>
       <c r="BD12">
         <f>sim_results!G6</f>
-        <v>58333.33</v>
+        <v>2.7000000000000002E-9</v>
       </c>
       <c r="BE12" s="234">
         <f>sim_results!G9</f>
@@ -52693,7 +52747,7 @@
       </c>
       <c r="BD13">
         <f>sim_results!AG6</f>
-        <v>117881.03958333335</v>
+        <v>4.4299999999999998E-9</v>
       </c>
       <c r="BE13" s="234">
         <f>sim_results!AG9</f>
@@ -52706,7 +52760,7 @@
       </c>
       <c r="BD14">
         <f>sim_results!R6</f>
-        <v>174999.99999999997</v>
+        <v>7.8500000000000008E-9</v>
       </c>
       <c r="BE14">
         <f>sim_results!R9</f>
@@ -52719,7 +52773,7 @@
       </c>
       <c r="BD15">
         <f>sim_results!AK6</f>
-        <v>310000</v>
+        <v>1.7599999999999999E-8</v>
       </c>
       <c r="BE15" s="234">
         <f>sim_results!AK9</f>
@@ -52739,14 +52793,17 @@
     <row r="29" spans="30:80">
       <c r="AD29" t="str">
         <f>sim_results!C6&amp;" and percentage of solid material in debris cloud"</f>
-        <v>bulk modulus and percentage of solid material in debris cloud</v>
+        <v>density and percentage of solid material in debris cloud</v>
       </c>
       <c r="AP29" t="str">
         <f>sim_results!C6&amp; " and residual velocity"</f>
-        <v>bulk modulus and residual velocity</v>
+        <v>density and residual velocity</v>
       </c>
     </row>
-    <row r="46" spans="58:58">
+    <row r="45" spans="58:80">
+      <c r="CB45" s="12"/>
+    </row>
+    <row r="46" spans="58:80">
       <c r="BF46" t="s">
         <v>45</v>
       </c>
@@ -52754,7 +52811,7 @@
     <row r="50" spans="37:37">
       <c r="AK50" t="str">
         <f>sim_results!C6&amp; " and percentage of converted particles due to temperature"</f>
-        <v>bulk modulus and percentage of converted particles due to temperature</v>
+        <v>density and percentage of converted particles due to temperature</v>
       </c>
     </row>
   </sheetData>
@@ -52779,8 +52836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B4229-EA03-4E67-BC3F-2CC32347831E}">
   <dimension ref="B3:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -52792,7 +52849,7 @@
     <col min="5" max="5" width="6" style="243" customWidth="1"/>
     <col min="6" max="6" width="7" style="243" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="243" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="243" customWidth="1"/>
+    <col min="8" max="8" width="14" style="243" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="243" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" style="243" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="243" bestFit="1" customWidth="1"/>
@@ -52835,58 +52892,58 @@
       <c r="Z3" s="245"/>
     </row>
     <row r="4" spans="2:26" ht="45.75" thickBot="1">
-      <c r="C4" s="289" t="s">
+      <c r="C4" s="290" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="290"/>
+      <c r="E4" s="249" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="249" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="246" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="246" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="289"/>
-      <c r="E4" s="249" t="s">
+      <c r="I4" s="255" t="s">
         <v>260</v>
       </c>
-      <c r="F4" s="249" t="s">
+      <c r="J4" s="255" t="s">
+        <v>254</v>
+      </c>
+      <c r="K4" s="255" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="256" t="s">
         <v>261</v>
       </c>
-      <c r="G4" s="246" t="s">
+      <c r="M4" s="256" t="s">
+        <v>262</v>
+      </c>
+      <c r="N4" s="255" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="256" t="s">
         <v>255</v>
       </c>
-      <c r="H4" s="246" t="s">
-        <v>254</v>
-      </c>
-      <c r="I4" s="255" t="s">
-        <v>262</v>
-      </c>
-      <c r="J4" s="255" t="s">
+      <c r="P4" s="255" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q4" s="255" t="s">
         <v>256</v>
-      </c>
-      <c r="K4" s="255" t="s">
-        <v>259</v>
-      </c>
-      <c r="L4" s="256" t="s">
-        <v>263</v>
-      </c>
-      <c r="M4" s="256" t="s">
-        <v>264</v>
-      </c>
-      <c r="N4" s="255" t="s">
-        <v>285</v>
-      </c>
-      <c r="O4" s="256" t="s">
-        <v>257</v>
-      </c>
-      <c r="P4" s="255" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q4" s="255" t="s">
-        <v>258</v>
       </c>
       <c r="R4" s="256"/>
       <c r="S4" s="256" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="T4" s="256" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U4" s="256" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="V4" s="245"/>
       <c r="W4" s="245"/>
@@ -53464,7 +53521,7 @@
         <v>142</v>
       </c>
       <c r="D14" s="247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E14" s="245">
         <v>0.4</v>
@@ -53524,7 +53581,7 @@
       </c>
       <c r="C15" s="246"/>
       <c r="D15" s="247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E15" s="245">
         <v>0.4</v>
@@ -53584,7 +53641,7 @@
       </c>
       <c r="C16" s="246"/>
       <c r="D16" s="247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E16" s="245">
         <v>0.4</v>
@@ -53644,7 +53701,7 @@
       </c>
       <c r="C17" s="246"/>
       <c r="D17" s="247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E17" s="245">
         <v>0.8</v>
@@ -53704,7 +53761,7 @@
       </c>
       <c r="C18" s="246"/>
       <c r="D18" s="247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E18" s="245">
         <v>0.8</v>
@@ -53764,7 +53821,7 @@
       </c>
       <c r="C19" s="246"/>
       <c r="D19" s="247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E19" s="245">
         <v>0.8</v>
@@ -53824,7 +53881,7 @@
       </c>
       <c r="C20" s="246"/>
       <c r="D20" s="247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E20" s="245">
         <v>1.2</v>
@@ -53884,7 +53941,7 @@
       </c>
       <c r="C21" s="246"/>
       <c r="D21" s="247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E21" s="245">
         <v>1.2</v>
@@ -53944,7 +54001,7 @@
       </c>
       <c r="C22" s="246"/>
       <c r="D22" s="247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E22" s="245">
         <v>1.2</v>
@@ -54548,7 +54605,7 @@
         <v>208</v>
       </c>
       <c r="D32" s="247" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E32" s="245">
         <v>0.4</v>
@@ -54608,7 +54665,7 @@
       </c>
       <c r="C33" s="246"/>
       <c r="D33" s="247" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E33" s="245">
         <v>0.4</v>
@@ -54668,7 +54725,7 @@
       </c>
       <c r="C34" s="246"/>
       <c r="D34" s="247" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E34" s="245">
         <v>0.4</v>
@@ -54731,7 +54788,7 @@
       </c>
       <c r="C35" s="246"/>
       <c r="D35" s="247" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E35" s="245">
         <v>0.8</v>
@@ -54794,7 +54851,7 @@
       </c>
       <c r="C36" s="246"/>
       <c r="D36" s="247" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E36" s="245">
         <v>0.8</v>
@@ -54857,7 +54914,7 @@
       </c>
       <c r="C37" s="246"/>
       <c r="D37" s="247" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E37" s="245">
         <v>0.8</v>
@@ -54920,7 +54977,7 @@
       </c>
       <c r="C38" s="246"/>
       <c r="D38" s="247" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E38" s="245">
         <v>1.2</v>
@@ -54983,7 +55040,7 @@
       </c>
       <c r="C39" s="246"/>
       <c r="D39" s="247" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E39" s="245">
         <v>1.2</v>
@@ -55046,7 +55103,7 @@
       </c>
       <c r="C40" s="246"/>
       <c r="D40" s="247" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E40" s="245">
         <v>1.2</v>

--- a/Multiparameter analysis in R (Rannveig)/Data/Results2.xlsx
+++ b/Multiparameter analysis in R (Rannveig)/Data/Results2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/GitHub/Multiparameter analysis in R (Rannveig)/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13131A18-85E4-430C-BE07-BC729384B718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{13131A18-85E4-430C-BE07-BC729384B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E82FBB0-5A0E-4AA2-903B-0D722B195047}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="-105" windowWidth="22725" windowHeight="13170" activeTab="5" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
+    <workbookView xWindow="420" yWindow="-108" windowWidth="22728" windowHeight="13176" activeTab="6" xr2:uid="{84D0EFE8-BE55-4288-8C02-3F60F3E82B53}"/>
   </bookViews>
   <sheets>
     <sheet name="2R" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="sim_results" sheetId="2" r:id="rId4"/>
     <sheet name="plots" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="density">mat_param!$C$10:$C$36</definedName>
@@ -29,6 +30,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1295,12 +1305,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2110,7 +2121,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2729,39 +2740,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2795,6 +2773,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2810,6 +2821,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2996,7 +3008,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3551,7 +3563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3589,7 +3601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -3682,7 +3694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3720,7 +3732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -3762,7 +3774,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3799,7 +3811,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3883,7 +3895,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5817,7 +5829,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5855,7 +5867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -5964,7 +5976,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6002,7 +6014,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -6054,7 +6066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6091,7 +6103,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6161,7 +6173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8634,7 +8646,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>plots!$BD$12:$BD$15</c15:sqref>
@@ -8661,7 +8673,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>plots!$BE$12:$BE$15</c15:sqref>
@@ -8687,7 +8699,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-1647-4A8F-9F60-A92ADCFED8B9}"/>
                   </c:ext>
@@ -8791,7 +8803,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8829,7 +8841,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -8922,7 +8934,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8960,7 +8972,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -9012,7 +9024,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9049,7 +9061,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9119,7 +9131,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11612,7 +11624,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11650,7 +11662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -11743,7 +11755,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11781,7 +11793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -11833,7 +11845,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11870,7 +11882,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11954,7 +11966,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14548,7 +14560,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14586,7 +14598,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -14679,7 +14691,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14717,7 +14729,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -14769,7 +14781,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14806,7 +14818,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14876,7 +14888,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17487,7 +17499,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17525,7 +17537,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -17626,7 +17638,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17664,7 +17676,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -17716,7 +17728,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17753,7 +17765,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17837,7 +17849,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20556,7 +20568,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20594,7 +20606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -20703,7 +20715,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20741,7 +20753,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -20793,7 +20805,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20830,7 +20842,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20914,7 +20926,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21464,7 +21476,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21502,7 +21514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -21595,7 +21607,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21633,7 +21645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -21675,7 +21687,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21712,7 +21724,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21830,7 +21842,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22380,7 +22392,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22418,7 +22430,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -22511,7 +22523,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22549,7 +22561,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -22591,7 +22603,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22628,7 +22640,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22712,7 +22724,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23254,7 +23266,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23292,7 +23304,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -23393,7 +23405,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -23431,7 +23443,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -23473,7 +23485,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23510,7 +23522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23628,7 +23640,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -24170,7 +24182,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24208,7 +24220,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -24317,7 +24329,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24355,7 +24367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -24397,7 +24409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -24434,7 +24446,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24504,7 +24516,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -26394,7 +26406,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26432,7 +26444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -26526,7 +26538,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -26564,7 +26576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -26616,7 +26628,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -26653,7 +26665,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -26723,7 +26735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -28555,7 +28567,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -28593,7 +28605,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -28686,7 +28698,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -28724,7 +28736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -28776,7 +28788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -28813,7 +28825,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -28897,7 +28909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -30729,7 +30741,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -30767,7 +30779,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -30860,7 +30872,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -30898,7 +30910,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -30950,7 +30962,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -30987,7 +30999,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -31057,7 +31069,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -32991,7 +33003,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -33029,7 +33041,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1767837104"/>
@@ -33130,7 +33142,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -33168,7 +33180,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1593113264"/>
@@ -33220,7 +33232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -33257,7 +33269,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -42483,19 +42495,19 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="243"/>
-    <col min="5" max="5" width="12.85546875" style="243" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="243" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="243" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="243"/>
+    <col min="1" max="4" width="9.109375" style="243"/>
+    <col min="5" max="5" width="12.88671875" style="243" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="243" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="243" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="243"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="244" t="s">
         <v>271</v>
       </c>
@@ -42533,7 +42545,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="243" t="s">
         <v>287</v>
       </c>
@@ -42570,15 +42582,14 @@
         <v>40.659999999999997</v>
       </c>
       <c r="K2" s="262">
-        <f>Sheet1!O5</f>
-        <v>5250000</v>
+        <v>4.55</v>
       </c>
       <c r="L2" s="243">
         <f>Sheet1!Q5</f>
         <v>3.28</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="243" t="s">
         <v>288</v>
       </c>
@@ -42615,15 +42626,14 @@
         <v>22.54</v>
       </c>
       <c r="K3" s="262">
-        <f>Sheet1!O6</f>
-        <v>6410000</v>
+        <v>4.33</v>
       </c>
       <c r="L3" s="243">
         <f>Sheet1!Q6</f>
         <v>2.71</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="243" t="s">
         <v>289</v>
       </c>
@@ -42660,15 +42670,14 @@
         <v>16.89</v>
       </c>
       <c r="K4" s="262">
-        <f>Sheet1!O7</f>
-        <v>7170000</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L4" s="243">
         <f>Sheet1!Q7</f>
         <v>3.02</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="243" t="s">
         <v>291</v>
       </c>
@@ -42705,15 +42714,14 @@
         <v>22.87</v>
       </c>
       <c r="K5" s="262">
-        <f>Sheet1!O8</f>
-        <v>5140000</v>
+        <v>6.55</v>
       </c>
       <c r="L5" s="243">
         <f>Sheet1!Q8</f>
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="243" t="s">
         <v>292</v>
       </c>
@@ -42750,15 +42758,14 @@
         <v>14.26</v>
       </c>
       <c r="K6" s="262">
-        <f>Sheet1!O9</f>
-        <v>6270000</v>
+        <v>6.42</v>
       </c>
       <c r="L6" s="243">
         <f>Sheet1!Q9</f>
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="243" t="s">
         <v>290</v>
       </c>
@@ -42795,15 +42802,14 @@
         <v>9.02</v>
       </c>
       <c r="K7" s="262">
-        <f>Sheet1!O10</f>
-        <v>7040000</v>
+        <v>6.13</v>
       </c>
       <c r="L7" s="243">
         <f>Sheet1!Q10</f>
         <v>5.82</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="243" t="s">
         <v>293</v>
       </c>
@@ -42840,15 +42846,14 @@
         <v>14.26</v>
       </c>
       <c r="K8" s="262">
-        <f>Sheet1!O11</f>
-        <v>5040000</v>
+        <v>8.36</v>
       </c>
       <c r="L8" s="243">
         <f>Sheet1!Q11</f>
         <v>5.51</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="243" t="s">
         <v>294</v>
       </c>
@@ -42885,15 +42890,14 @@
         <v>9.43</v>
       </c>
       <c r="K9" s="262">
-        <f>Sheet1!O12</f>
-        <v>6140000</v>
+        <v>8.36</v>
       </c>
       <c r="L9" s="243">
         <f>Sheet1!Q12</f>
         <v>7.19</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="243" t="s">
         <v>295</v>
       </c>
@@ -42930,15 +42934,14 @@
         <v>8.36</v>
       </c>
       <c r="K10" s="262">
-        <f>Sheet1!O13</f>
-        <v>6910000</v>
+        <v>7.87</v>
       </c>
       <c r="L10" s="243">
         <f>Sheet1!Q13</f>
         <v>8.34</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="243" t="s">
         <v>296</v>
       </c>
@@ -42975,15 +42978,14 @@
         <v>5.88</v>
       </c>
       <c r="K11" s="262">
-        <f>Sheet1!O14</f>
-        <v>4810000</v>
+        <v>12.55</v>
       </c>
       <c r="L11" s="243">
         <f>Sheet1!Q14</f>
         <v>4.66</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="243" t="s">
         <v>297</v>
       </c>
@@ -43020,15 +43022,14 @@
         <v>3.84</v>
       </c>
       <c r="K12" s="262">
-        <f>Sheet1!O15</f>
-        <v>5940000</v>
+        <v>11.34</v>
       </c>
       <c r="L12" s="243">
         <f>Sheet1!Q15</f>
         <v>5.33</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="243" t="s">
         <v>298</v>
       </c>
@@ -43065,15 +43066,14 @@
         <v>2.65</v>
       </c>
       <c r="K13" s="262">
-        <f>Sheet1!O16</f>
-        <v>6690000</v>
+        <v>10.8</v>
       </c>
       <c r="L13" s="243">
         <f>Sheet1!Q16</f>
         <v>6.66</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="243" t="s">
         <v>299</v>
       </c>
@@ -43110,15 +43110,14 @@
         <v>3.94</v>
       </c>
       <c r="K14" s="262">
-        <f>Sheet1!O17</f>
-        <v>4560000</v>
+        <v>17.09</v>
       </c>
       <c r="L14" s="243">
         <f>Sheet1!Q17</f>
         <v>7.15</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="243" t="s">
         <v>300</v>
       </c>
@@ -43155,15 +43154,14 @@
         <v>2.75</v>
       </c>
       <c r="K15" s="262">
-        <f>Sheet1!O18</f>
-        <v>5720000</v>
+        <v>14.63</v>
       </c>
       <c r="L15" s="243">
         <f>Sheet1!Q18</f>
         <v>8.58</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="243" t="s">
         <v>301</v>
       </c>
@@ -43200,15 +43198,14 @@
         <v>2.09</v>
       </c>
       <c r="K16" s="262">
-        <f>Sheet1!O19</f>
-        <v>6480000</v>
+        <v>13.6</v>
       </c>
       <c r="L16" s="243">
         <f>Sheet1!Q19</f>
         <v>10.9</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="243" t="s">
         <v>302</v>
       </c>
@@ -43245,15 +43242,14 @@
         <v>2.36</v>
       </c>
       <c r="K17" s="262">
-        <f>Sheet1!O20</f>
-        <v>4380000</v>
+        <v>20.36</v>
       </c>
       <c r="L17" s="243">
         <f>Sheet1!Q20</f>
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="243" t="s">
         <v>303</v>
       </c>
@@ -43290,15 +43286,14 @@
         <v>2.48</v>
       </c>
       <c r="K18" s="262">
-        <f>Sheet1!O21</f>
-        <v>5520000</v>
+        <v>17.61</v>
       </c>
       <c r="L18" s="243">
         <f>Sheet1!Q21</f>
         <v>11.2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="243" t="s">
         <v>304</v>
       </c>
@@ -43335,15 +43330,14 @@
         <v>1.43</v>
       </c>
       <c r="K19" s="262">
-        <f>Sheet1!O22</f>
-        <v>6310000</v>
+        <v>15.87</v>
       </c>
       <c r="L19" s="243">
         <f>Sheet1!Q22</f>
         <v>14.2</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="243" t="s">
         <v>305</v>
       </c>
@@ -43380,15 +43374,14 @@
         <v>15.33</v>
       </c>
       <c r="K20" s="262">
-        <f>Sheet1!O23</f>
-        <v>5110000</v>
+        <v>7.09</v>
       </c>
       <c r="L20" s="243">
         <f>Sheet1!Q23</f>
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="243" t="s">
         <v>306</v>
       </c>
@@ -43425,15 +43418,14 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="K21" s="262">
-        <f>Sheet1!O24</f>
-        <v>6250000</v>
+        <v>6.72</v>
       </c>
       <c r="L21" s="243">
         <f>Sheet1!Q24</f>
         <v>2.48</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="243" t="s">
         <v>307</v>
       </c>
@@ -43470,15 +43462,14 @@
         <v>6.75</v>
       </c>
       <c r="K22" s="262">
-        <f>Sheet1!O25</f>
-        <v>7020000</v>
+        <v>6.4</v>
       </c>
       <c r="L22" s="243">
         <f>Sheet1!Q25</f>
         <v>2.82</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="243" t="s">
         <v>308</v>
       </c>
@@ -43515,15 +43506,14 @@
         <v>7.39</v>
       </c>
       <c r="K23" s="262">
-        <f>Sheet1!O26</f>
-        <v>4950000</v>
+        <v>10</v>
       </c>
       <c r="L23" s="243">
         <f>Sheet1!Q26</f>
         <v>3.35</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="243" t="s">
         <v>309</v>
       </c>
@@ -43560,15 +43550,14 @@
         <v>4.43</v>
       </c>
       <c r="K24" s="262">
-        <f>Sheet1!O27</f>
-        <v>6090000</v>
+        <v>9.1</v>
       </c>
       <c r="L24" s="243">
         <f>Sheet1!Q27</f>
         <v>3.48</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="243" t="s">
         <v>310</v>
       </c>
@@ -43605,15 +43594,14 @@
         <v>4.7</v>
       </c>
       <c r="K25" s="262">
-        <f>Sheet1!O28</f>
-        <v>6820000</v>
+        <v>9.07</v>
       </c>
       <c r="L25" s="243">
         <f>Sheet1!Q28</f>
         <v>4.18</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="243" t="s">
         <v>311</v>
       </c>
@@ -43650,15 +43638,14 @@
         <v>4.7</v>
       </c>
       <c r="K26" s="262">
-        <f>Sheet1!O29</f>
-        <v>4840000</v>
+        <v>12</v>
       </c>
       <c r="L26" s="243">
         <f>Sheet1!Q29</f>
         <v>4.45</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="243" t="s">
         <v>312</v>
       </c>
@@ -43695,15 +43682,14 @@
         <v>3.56</v>
       </c>
       <c r="K27" s="262">
-        <f>Sheet1!O30</f>
-        <v>5950000</v>
+        <v>11.19</v>
       </c>
       <c r="L27" s="243">
         <f>Sheet1!Q30</f>
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="243" t="s">
         <v>313</v>
       </c>
@@ -43740,15 +43726,14 @@
         <v>3.3</v>
       </c>
       <c r="K28" s="262">
-        <f>Sheet1!O31</f>
-        <v>6700000</v>
+        <v>10.67</v>
       </c>
       <c r="L28" s="243">
         <f>Sheet1!Q31</f>
         <v>5.87</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="243" t="s">
         <v>314</v>
       </c>
@@ -43785,15 +43770,14 @@
         <v>2.83</v>
       </c>
       <c r="K29" s="262">
-        <f>Sheet1!O32</f>
-        <v>4130000</v>
+        <v>24.91</v>
       </c>
       <c r="L29" s="243">
         <f>Sheet1!Q32</f>
         <v>12.4</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="243" t="s">
         <v>315</v>
       </c>
@@ -43830,15 +43814,14 @@
         <v>1.64</v>
       </c>
       <c r="K30" s="262">
-        <f>Sheet1!O33</f>
-        <v>5390000</v>
+        <v>19.55</v>
       </c>
       <c r="L30" s="243">
         <f>Sheet1!Q33</f>
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="243" t="s">
         <v>316</v>
       </c>
@@ -43875,15 +43858,14 @@
         <v>1.67</v>
       </c>
       <c r="K31" s="262">
-        <f>Sheet1!O34</f>
-        <v>6240000</v>
+        <v>16.8</v>
       </c>
       <c r="L31" s="243">
         <f>Sheet1!Q34</f>
         <v>24.9</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="243" t="s">
         <v>317</v>
       </c>
@@ -43920,15 +43902,14 @@
         <v>2.04</v>
       </c>
       <c r="K32" s="262">
-        <f>Sheet1!O35</f>
-        <v>3730000</v>
+        <v>32.18</v>
       </c>
       <c r="L32" s="243">
         <f>Sheet1!Q35</f>
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="243" t="s">
         <v>318</v>
       </c>
@@ -43965,15 +43946,14 @@
         <v>1.64</v>
       </c>
       <c r="K33" s="262">
-        <f>Sheet1!O36</f>
-        <v>5030000</v>
+        <v>24.93</v>
       </c>
       <c r="L33" s="243">
         <f>Sheet1!Q36</f>
         <v>25.8</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="243" t="s">
         <v>319</v>
       </c>
@@ -44010,15 +43990,14 @@
         <v>1.31</v>
       </c>
       <c r="K34" s="262">
-        <f>Sheet1!O37</f>
-        <v>5680000</v>
+        <v>24.27</v>
       </c>
       <c r="L34" s="243">
         <f>Sheet1!Q37</f>
         <v>34.9</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="243" t="s">
         <v>320</v>
       </c>
@@ -44055,15 +44034,14 @@
         <v>1.25</v>
       </c>
       <c r="K35" s="262">
-        <f>Sheet1!O38</f>
-        <v>3420000</v>
+        <v>37.82</v>
       </c>
       <c r="L35" s="243">
         <f>Sheet1!Q38</f>
         <v>26.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="243" t="s">
         <v>321</v>
       </c>
@@ -44100,15 +44078,14 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="K36" s="262">
-        <f>Sheet1!O39</f>
-        <v>4490000</v>
+        <v>32.99</v>
       </c>
       <c r="L36" s="243">
         <f>Sheet1!Q39</f>
         <v>32.4</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="243" t="s">
         <v>322</v>
       </c>
@@ -44145,8 +44122,7 @@
         <v>0.98</v>
       </c>
       <c r="K37" s="262">
-        <f>Sheet1!O40</f>
-        <v>5010000</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="L37" s="243">
         <f>Sheet1!Q40</f>
@@ -44166,24 +44142,24 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="78.85546875" customWidth="1"/>
+    <col min="2" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="78.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="17.25" customHeight="1">
+    <row r="4" spans="3:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="21" customHeight="1">
+    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
@@ -44191,53 +44167,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="18"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="19"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="19"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="20"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="22"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="23"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="19"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="20"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -44248,7 +44224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -44257,21 +44233,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
         <v>15</v>
@@ -44280,21 +44256,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -44303,21 +44279,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
@@ -44326,28 +44302,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="16" t="s">
@@ -44369,48 +44345,48 @@
       <selection pane="topRight" activeCell="AM30" sqref="AM30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="18" width="18.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
-    <col min="21" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="18" width="18.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" customWidth="1"/>
+    <col min="21" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.6640625" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="16.6640625" customWidth="1"/>
     <col min="32" max="32" width="14" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" customWidth="1"/>
-    <col min="34" max="34" width="14.28515625" customWidth="1"/>
-    <col min="35" max="35" width="18.85546875" customWidth="1"/>
-    <col min="36" max="36" width="22.5703125" customWidth="1"/>
-    <col min="37" max="37" width="21.42578125" customWidth="1"/>
+    <col min="33" max="33" width="15.88671875" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" customWidth="1"/>
+    <col min="35" max="35" width="18.88671875" customWidth="1"/>
+    <col min="36" max="36" width="22.5546875" customWidth="1"/>
+    <col min="37" max="37" width="21.44140625" customWidth="1"/>
     <col min="38" max="38" width="21" customWidth="1"/>
-    <col min="39" max="39" width="22.7109375" customWidth="1"/>
-    <col min="40" max="40" width="27.42578125" customWidth="1"/>
-    <col min="41" max="41" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.6640625" customWidth="1"/>
+    <col min="40" max="40" width="27.44140625" customWidth="1"/>
+    <col min="41" max="41" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="15" customWidth="1"/>
-    <col min="44" max="44" width="16.28515625" customWidth="1"/>
-    <col min="45" max="45" width="15.7109375" customWidth="1"/>
-    <col min="46" max="46" width="16.28515625" customWidth="1"/>
+    <col min="44" max="44" width="16.33203125" customWidth="1"/>
+    <col min="45" max="45" width="15.6640625" customWidth="1"/>
+    <col min="46" max="46" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:46">
+    <row r="2" spans="2:46" x14ac:dyDescent="0.3">
       <c r="AM2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:46">
+    <row r="3" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -44447,7 +44423,7 @@
       <c r="AI3" s="25"/>
       <c r="AJ3" s="25"/>
     </row>
-    <row r="4" spans="2:46">
+    <row r="4" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -44484,23 +44460,23 @@
       <c r="AI4" s="25"/>
       <c r="AJ4" s="25"/>
     </row>
-    <row r="5" spans="2:46" ht="15" customHeight="1">
+    <row r="5" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
-      <c r="F5" s="273" t="s">
+      <c r="F5" s="284" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="274" t="s">
+      <c r="G5" s="285"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285"/>
+      <c r="K5" s="285" t="s">
         <v>178</v>
       </c>
-      <c r="L5" s="274"/>
-      <c r="M5" s="274"/>
+      <c r="L5" s="285"/>
+      <c r="M5" s="285"/>
       <c r="N5" s="162"/>
       <c r="O5" s="162"/>
       <c r="P5" s="178"/>
@@ -44509,26 +44485,26 @@
       <c r="S5" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="T5" s="267" t="s">
+      <c r="T5" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="U5" s="267"/>
-      <c r="V5" s="267"/>
-      <c r="W5" s="267"/>
-      <c r="X5" s="267"/>
-      <c r="Y5" s="267"/>
-      <c r="Z5" s="267"/>
-      <c r="AA5" s="267"/>
-      <c r="AB5" s="267"/>
-      <c r="AC5" s="267"/>
-      <c r="AD5" s="267"/>
-      <c r="AE5" s="267"/>
-      <c r="AF5" s="267"/>
-      <c r="AG5" s="267"/>
-      <c r="AH5" s="267"/>
-      <c r="AI5" s="267"/>
-      <c r="AJ5" s="267"/>
-      <c r="AK5" s="267"/>
+      <c r="U5" s="280"/>
+      <c r="V5" s="280"/>
+      <c r="W5" s="280"/>
+      <c r="X5" s="280"/>
+      <c r="Y5" s="280"/>
+      <c r="Z5" s="280"/>
+      <c r="AA5" s="280"/>
+      <c r="AB5" s="280"/>
+      <c r="AC5" s="280"/>
+      <c r="AD5" s="280"/>
+      <c r="AE5" s="280"/>
+      <c r="AF5" s="280"/>
+      <c r="AG5" s="280"/>
+      <c r="AH5" s="280"/>
+      <c r="AI5" s="280"/>
+      <c r="AJ5" s="280"/>
+      <c r="AK5" s="280"/>
       <c r="AL5" s="144"/>
       <c r="AM5" s="174"/>
       <c r="AN5" s="219"/>
@@ -44539,19 +44515,19 @@
       <c r="AS5" s="223"/>
       <c r="AT5" s="223"/>
     </row>
-    <row r="6" spans="2:46">
+    <row r="6" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B6" s="25"/>
-      <c r="C6" s="276"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="271" t="s">
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="276" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
+      <c r="G6" s="275"/>
+      <c r="H6" s="275"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="275"/>
+      <c r="K6" s="275"/>
       <c r="L6" s="113"/>
       <c r="M6" s="111"/>
       <c r="N6" s="161"/>
@@ -44559,13 +44535,13 @@
       <c r="P6" s="177"/>
       <c r="Q6" s="212"/>
       <c r="R6" s="236"/>
-      <c r="S6" s="271" t="s">
+      <c r="S6" s="276" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="272"/>
-      <c r="U6" s="272"/>
-      <c r="V6" s="272"/>
-      <c r="W6" s="272"/>
+      <c r="T6" s="275"/>
+      <c r="U6" s="275"/>
+      <c r="V6" s="275"/>
+      <c r="W6" s="275"/>
       <c r="X6" s="136"/>
       <c r="Y6" s="148"/>
       <c r="Z6" s="163"/>
@@ -44574,17 +44550,17 @@
       <c r="AC6" s="163"/>
       <c r="AD6" s="163"/>
       <c r="AE6" s="163"/>
-      <c r="AF6" s="272" t="s">
+      <c r="AF6" s="275" t="s">
         <v>125</v>
       </c>
-      <c r="AG6" s="272"/>
-      <c r="AH6" s="272"/>
-      <c r="AI6" s="272"/>
-      <c r="AJ6" s="268" t="s">
+      <c r="AG6" s="275"/>
+      <c r="AH6" s="275"/>
+      <c r="AI6" s="275"/>
+      <c r="AJ6" s="281" t="s">
         <v>176</v>
       </c>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="270"/>
+      <c r="AK6" s="282"/>
+      <c r="AL6" s="283"/>
       <c r="AM6" s="120"/>
       <c r="AN6" s="219"/>
       <c r="AO6" s="220"/>
@@ -44594,7 +44570,7 @@
       <c r="AS6" s="223"/>
       <c r="AT6" s="223"/>
     </row>
-    <row r="7" spans="2:46">
+    <row r="7" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B7" s="25"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -44711,13 +44687,13 @@
       <c r="AQ7" s="224" t="s">
         <v>227</v>
       </c>
-      <c r="AR7" s="264" t="s">
+      <c r="AR7" s="277" t="s">
         <v>235</v>
       </c>
-      <c r="AS7" s="265"/>
-      <c r="AT7" s="265"/>
+      <c r="AS7" s="278"/>
+      <c r="AT7" s="278"/>
     </row>
-    <row r="8" spans="2:46" ht="19.5" customHeight="1" thickBot="1">
+    <row r="8" spans="2:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8" s="42" t="s">
         <v>61</v>
@@ -44851,7 +44827,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:46" ht="16.5" customHeight="1">
+    <row r="9" spans="2:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="25"/>
       <c r="C9" s="36" t="s">
         <v>64</v>
@@ -44978,7 +44954,7 @@
         <v>2.7000000000000002E-9</v>
       </c>
     </row>
-    <row r="10" spans="2:46">
+    <row r="10" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
       <c r="C10" s="31" t="s">
         <v>66</v>
@@ -45129,7 +45105,7 @@
         <v>58333.33</v>
       </c>
     </row>
-    <row r="11" spans="2:46">
+    <row r="11" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="31" t="s">
         <v>69</v>
@@ -45276,7 +45252,7 @@
         <v>26923.08</v>
       </c>
     </row>
-    <row r="12" spans="2:46">
+    <row r="12" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="31" t="s">
         <v>71</v>
@@ -45370,7 +45346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:46">
+    <row r="13" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="31" t="s">
         <v>73</v>
@@ -45496,7 +45472,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="14" spans="2:46">
+    <row r="14" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="31" t="s">
         <v>75</v>
@@ -45620,7 +45596,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="2:46">
+    <row r="15" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B15" s="25"/>
       <c r="C15" s="31" t="s">
         <v>77</v>
@@ -45697,7 +45673,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="2:46">
+    <row r="16" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B16" s="25"/>
       <c r="C16" s="31" t="s">
         <v>79</v>
@@ -45821,7 +45797,7 @@
         <v>910000000</v>
       </c>
     </row>
-    <row r="17" spans="2:46">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" s="31" t="s">
         <v>82</v>
@@ -45893,7 +45869,7 @@
         <v>2.3200000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="2:46">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" s="31" t="s">
         <v>85</v>
@@ -46017,7 +45993,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:46">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31" t="s">
@@ -46092,7 +46068,7 @@
         <v>2.4569999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:46">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="35" t="s">
         <v>88</v>
@@ -46223,7 +46199,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="21" spans="2:46">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="35" t="s">
         <v>90</v>
@@ -46347,7 +46323,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="2:46">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
       <c r="C22" s="35" t="s">
         <v>92</v>
@@ -46471,7 +46447,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="2:46">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
       <c r="C23" s="35" t="s">
         <v>94</v>
@@ -46528,7 +46504,7 @@
       <c r="AI23" s="25"/>
       <c r="AJ23" s="121"/>
     </row>
-    <row r="24" spans="2:46">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B24" s="25"/>
       <c r="C24" s="31" t="s">
         <v>120</v>
@@ -46646,7 +46622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:46">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" s="31" t="s">
         <v>121</v>
@@ -46764,7 +46740,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="2:46">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" s="31" t="s">
         <v>122</v>
@@ -46882,7 +46858,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="2:46">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" s="31" t="s">
         <v>123</v>
@@ -47009,7 +46985,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:46">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" s="31" t="s">
         <v>124</v>
@@ -47136,7 +47112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:46">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
       <c r="C29" s="35" t="s">
         <v>151</v>
@@ -47200,7 +47176,7 @@
         <v>43.63</v>
       </c>
     </row>
-    <row r="30" spans="2:46">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B30" s="25"/>
       <c r="C30" s="35" t="s">
         <v>152</v>
@@ -47264,7 +47240,7 @@
         <v>106000</v>
       </c>
     </row>
-    <row r="31" spans="2:46">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B31" s="25"/>
       <c r="C31" s="35" t="s">
         <v>153</v>
@@ -47328,7 +47304,7 @@
         <v>125.6</v>
       </c>
     </row>
-    <row r="32" spans="2:46">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B32" s="25"/>
       <c r="C32" s="35" t="s">
         <v>154</v>
@@ -47392,7 +47368,7 @@
         <v>6256</v>
       </c>
     </row>
-    <row r="33" spans="2:67">
+    <row r="33" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B33" s="25"/>
       <c r="C33" s="35" t="s">
         <v>242</v>
@@ -47442,7 +47418,7 @@
         <v>43.23</v>
       </c>
     </row>
-    <row r="34" spans="2:67">
+    <row r="34" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
       <c r="C34" s="35" t="s">
         <v>241</v>
@@ -47492,7 +47468,7 @@
         <v>135.5</v>
       </c>
     </row>
-    <row r="35" spans="2:67">
+    <row r="35" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B35" s="25"/>
       <c r="C35" s="35" t="s">
         <v>105</v>
@@ -47562,7 +47538,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="36" spans="2:67">
+    <row r="36" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
       <c r="C36" s="31"/>
       <c r="D36" s="31" t="s">
@@ -47613,7 +47589,7 @@
       <c r="AI36" s="25"/>
       <c r="AJ36" s="121"/>
     </row>
-    <row r="37" spans="2:67">
+    <row r="37" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B37" s="25"/>
       <c r="C37" s="60"/>
       <c r="D37" s="60" t="s">
@@ -47673,7 +47649,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:67">
+    <row r="38" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B38" s="25"/>
       <c r="C38" s="89" t="s">
         <v>218</v>
@@ -47779,7 +47755,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="2:67">
+    <row r="39" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B39" s="25"/>
       <c r="C39" s="90" t="s">
         <v>133</v>
@@ -47885,7 +47861,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:67">
+    <row r="40" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B40" s="25"/>
       <c r="C40" s="90" t="s">
         <v>134</v>
@@ -47991,7 +47967,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="41" spans="2:67">
+    <row r="41" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B41" s="25"/>
       <c r="C41" s="90" t="s">
         <v>135</v>
@@ -48097,7 +48073,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:67">
+    <row r="42" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B42" s="25"/>
       <c r="C42" s="90" t="s">
         <v>136</v>
@@ -48206,7 +48182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:67" ht="14.25" customHeight="1">
+    <row r="43" spans="2:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="25"/>
       <c r="C43" s="87" t="s">
         <v>139</v>
@@ -48255,7 +48231,7 @@
       <c r="AI43" s="25"/>
       <c r="AJ43" s="121"/>
     </row>
-    <row r="44" spans="2:67" ht="14.25" customHeight="1">
+    <row r="44" spans="2:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="25"/>
       <c r="C44" s="91" t="s">
         <v>143</v>
@@ -48300,7 +48276,7 @@
       <c r="AI44" s="25"/>
       <c r="AJ44" s="122"/>
     </row>
-    <row r="45" spans="2:67" ht="14.25" customHeight="1">
+    <row r="45" spans="2:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="25"/>
       <c r="C45" s="80"/>
       <c r="D45" s="88" t="s">
@@ -48343,7 +48319,7 @@
       <c r="AI45" s="25"/>
       <c r="AJ45" s="122"/>
     </row>
-    <row r="46" spans="2:67" ht="14.25" customHeight="1">
+    <row r="46" spans="2:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="25"/>
       <c r="C46" s="80"/>
       <c r="D46" s="88" t="s">
@@ -48386,7 +48362,7 @@
       <c r="AI46" s="25"/>
       <c r="AJ46" s="122"/>
     </row>
-    <row r="47" spans="2:67" ht="14.25" customHeight="1">
+    <row r="47" spans="2:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="25"/>
       <c r="C47" s="92"/>
       <c r="D47" s="81" t="s">
@@ -48439,7 +48415,7 @@
       <c r="AS47" s="84"/>
       <c r="AT47" s="84"/>
     </row>
-    <row r="48" spans="2:67">
+    <row r="48" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B48" s="25"/>
       <c r="C48" s="39" t="s">
         <v>110</v>
@@ -48488,7 +48464,7 @@
       <c r="AI48" s="25"/>
       <c r="AJ48" s="122"/>
     </row>
-    <row r="49" spans="2:51">
+    <row r="49" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B49" s="25"/>
       <c r="C49" s="30" t="s">
         <v>115</v>
@@ -48498,12 +48474,12 @@
       <c r="F49" s="58">
         <v>22</v>
       </c>
-      <c r="G49" s="284">
+      <c r="G49" s="273">
         <v>1</v>
       </c>
-      <c r="H49" s="284"/>
-      <c r="I49" s="284"/>
-      <c r="J49" s="285"/>
+      <c r="H49" s="273"/>
+      <c r="I49" s="273"/>
+      <c r="J49" s="274"/>
       <c r="K49" s="106">
         <v>9</v>
       </c>
@@ -48532,11 +48508,11 @@
       <c r="T49" s="98">
         <v>4</v>
       </c>
-      <c r="U49" s="282">
+      <c r="U49" s="271">
         <v>5</v>
       </c>
-      <c r="V49" s="282"/>
-      <c r="W49" s="282"/>
+      <c r="V49" s="271"/>
+      <c r="W49" s="271"/>
       <c r="X49" s="149">
         <v>8</v>
       </c>
@@ -48546,40 +48522,40 @@
       <c r="Z49" s="159">
         <v>13</v>
       </c>
-      <c r="AA49" s="282">
+      <c r="AA49" s="271">
         <v>14</v>
       </c>
-      <c r="AB49" s="282"/>
-      <c r="AC49" s="282"/>
-      <c r="AD49" s="282"/>
+      <c r="AB49" s="271"/>
+      <c r="AC49" s="271"/>
+      <c r="AD49" s="271"/>
       <c r="AE49" s="173">
         <v>15</v>
       </c>
-      <c r="AF49" s="282">
+      <c r="AF49" s="271">
         <v>3</v>
       </c>
-      <c r="AG49" s="282"/>
-      <c r="AH49" s="282"/>
+      <c r="AG49" s="271"/>
+      <c r="AH49" s="271"/>
       <c r="AI49" s="109">
         <v>6</v>
       </c>
-      <c r="AJ49" s="279">
+      <c r="AJ49" s="268">
         <v>7</v>
       </c>
-      <c r="AK49" s="280"/>
+      <c r="AK49" s="269"/>
       <c r="AL49" s="143">
         <v>16</v>
       </c>
       <c r="AM49" s="180">
         <v>18</v>
       </c>
-      <c r="AR49" s="266">
+      <c r="AR49" s="279">
         <v>21</v>
       </c>
-      <c r="AS49" s="266"/>
-      <c r="AT49" s="266"/>
+      <c r="AS49" s="279"/>
+      <c r="AT49" s="279"/>
     </row>
-    <row r="50" spans="2:51">
+    <row r="50" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B50" s="25"/>
       <c r="C50" s="30" t="s">
         <v>116</v>
@@ -48702,7 +48678,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="2:51">
+    <row r="51" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
@@ -48739,7 +48715,7 @@
       <c r="AI51" s="25"/>
       <c r="AJ51" s="25"/>
     </row>
-    <row r="52" spans="2:51">
+    <row r="52" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -48776,7 +48752,7 @@
       <c r="AI52" s="25"/>
       <c r="AJ52" s="25"/>
     </row>
-    <row r="53" spans="2:51">
+    <row r="53" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -48813,7 +48789,7 @@
       <c r="AI53" s="25"/>
       <c r="AJ53" s="25"/>
     </row>
-    <row r="54" spans="2:51">
+    <row r="54" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B54" s="25">
         <v>1</v>
       </c>
@@ -48854,29 +48830,29 @@
       <c r="AI54" s="25"/>
       <c r="AJ54" s="25"/>
     </row>
-    <row r="55" spans="2:51">
+    <row r="55" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B55" s="25">
         <v>2</v>
       </c>
-      <c r="C55" s="283" t="s">
+      <c r="C55" s="272" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="283"/>
-      <c r="E55" s="283"/>
-      <c r="F55" s="283"/>
-      <c r="G55" s="283"/>
-      <c r="H55" s="283"/>
-      <c r="I55" s="283"/>
-      <c r="J55" s="283"/>
-      <c r="K55" s="283"/>
-      <c r="L55" s="283"/>
-      <c r="M55" s="283"/>
-      <c r="N55" s="283"/>
-      <c r="O55" s="283"/>
-      <c r="P55" s="283"/>
-      <c r="Q55" s="283"/>
-      <c r="R55" s="283"/>
-      <c r="S55" s="283"/>
+      <c r="D55" s="272"/>
+      <c r="E55" s="272"/>
+      <c r="F55" s="272"/>
+      <c r="G55" s="272"/>
+      <c r="H55" s="272"/>
+      <c r="I55" s="272"/>
+      <c r="J55" s="272"/>
+      <c r="K55" s="272"/>
+      <c r="L55" s="272"/>
+      <c r="M55" s="272"/>
+      <c r="N55" s="272"/>
+      <c r="O55" s="272"/>
+      <c r="P55" s="272"/>
+      <c r="Q55" s="272"/>
+      <c r="R55" s="272"/>
+      <c r="S55" s="272"/>
       <c r="T55" s="79"/>
       <c r="U55" s="99"/>
       <c r="V55" s="99"/>
@@ -48895,20 +48871,20 @@
       <c r="AI55" s="25"/>
       <c r="AJ55" s="25"/>
     </row>
-    <row r="56" spans="2:51">
+    <row r="56" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B56" s="25">
         <v>3</v>
       </c>
-      <c r="C56" s="283" t="s">
+      <c r="C56" s="272" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="283"/>
-      <c r="E56" s="283"/>
-      <c r="F56" s="283"/>
-      <c r="G56" s="283"/>
-      <c r="H56" s="283"/>
-      <c r="I56" s="283"/>
-      <c r="J56" s="283"/>
+      <c r="D56" s="272"/>
+      <c r="E56" s="272"/>
+      <c r="F56" s="272"/>
+      <c r="G56" s="272"/>
+      <c r="H56" s="272"/>
+      <c r="I56" s="272"/>
+      <c r="J56" s="272"/>
       <c r="K56" s="108"/>
       <c r="L56" s="108"/>
       <c r="M56" s="108"/>
@@ -48936,7 +48912,7 @@
       <c r="AI56" s="25"/>
       <c r="AJ56" s="25"/>
     </row>
-    <row r="57" spans="2:51">
+    <row r="57" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B57" s="25">
         <v>4</v>
       </c>
@@ -48977,30 +48953,30 @@
       <c r="AI57" s="25"/>
       <c r="AJ57" s="25"/>
     </row>
-    <row r="58" spans="2:51">
+    <row r="58" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B58" s="25">
         <v>5</v>
       </c>
-      <c r="C58" s="281" t="s">
+      <c r="C58" s="270" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="281"/>
-      <c r="E58" s="281"/>
-      <c r="F58" s="281"/>
-      <c r="G58" s="281"/>
-      <c r="H58" s="281"/>
-      <c r="I58" s="281"/>
-      <c r="J58" s="281"/>
-      <c r="K58" s="281"/>
-      <c r="L58" s="281"/>
-      <c r="M58" s="281"/>
-      <c r="N58" s="281"/>
-      <c r="O58" s="281"/>
-      <c r="P58" s="281"/>
-      <c r="Q58" s="281"/>
-      <c r="R58" s="281"/>
-      <c r="S58" s="281"/>
-      <c r="T58" s="281"/>
+      <c r="D58" s="270"/>
+      <c r="E58" s="270"/>
+      <c r="F58" s="270"/>
+      <c r="G58" s="270"/>
+      <c r="H58" s="270"/>
+      <c r="I58" s="270"/>
+      <c r="J58" s="270"/>
+      <c r="K58" s="270"/>
+      <c r="L58" s="270"/>
+      <c r="M58" s="270"/>
+      <c r="N58" s="270"/>
+      <c r="O58" s="270"/>
+      <c r="P58" s="270"/>
+      <c r="Q58" s="270"/>
+      <c r="R58" s="270"/>
+      <c r="S58" s="270"/>
+      <c r="T58" s="270"/>
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
@@ -49018,30 +48994,30 @@
       <c r="AI58" s="25"/>
       <c r="AJ58" s="25"/>
     </row>
-    <row r="59" spans="2:51">
+    <row r="59" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B59" s="25">
         <v>6</v>
       </c>
-      <c r="C59" s="275" t="s">
+      <c r="C59" s="264" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="275"/>
-      <c r="E59" s="275"/>
-      <c r="F59" s="275"/>
-      <c r="G59" s="275"/>
-      <c r="H59" s="275"/>
-      <c r="I59" s="275"/>
-      <c r="J59" s="275"/>
-      <c r="K59" s="275"/>
-      <c r="L59" s="275"/>
-      <c r="M59" s="275"/>
-      <c r="N59" s="275"/>
-      <c r="O59" s="275"/>
-      <c r="P59" s="275"/>
-      <c r="Q59" s="275"/>
-      <c r="R59" s="275"/>
-      <c r="S59" s="275"/>
-      <c r="T59" s="275"/>
+      <c r="D59" s="264"/>
+      <c r="E59" s="264"/>
+      <c r="F59" s="264"/>
+      <c r="G59" s="264"/>
+      <c r="H59" s="264"/>
+      <c r="I59" s="264"/>
+      <c r="J59" s="264"/>
+      <c r="K59" s="264"/>
+      <c r="L59" s="264"/>
+      <c r="M59" s="264"/>
+      <c r="N59" s="264"/>
+      <c r="O59" s="264"/>
+      <c r="P59" s="264"/>
+      <c r="Q59" s="264"/>
+      <c r="R59" s="264"/>
+      <c r="S59" s="264"/>
+      <c r="T59" s="264"/>
       <c r="U59" s="25"/>
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
@@ -49059,33 +49035,33 @@
       <c r="AI59" s="25"/>
       <c r="AJ59" s="25"/>
     </row>
-    <row r="60" spans="2:51">
+    <row r="60" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B60" s="59">
         <v>6</v>
       </c>
-      <c r="C60" s="281" t="s">
+      <c r="C60" s="270" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="281"/>
-      <c r="E60" s="281"/>
-      <c r="F60" s="281"/>
-      <c r="G60" s="281"/>
-      <c r="H60" s="281"/>
-      <c r="I60" s="281"/>
-      <c r="J60" s="281"/>
-      <c r="K60" s="281"/>
-      <c r="L60" s="281"/>
-      <c r="M60" s="281"/>
-      <c r="N60" s="281"/>
-      <c r="O60" s="281"/>
-      <c r="P60" s="281"/>
-      <c r="Q60" s="281"/>
-      <c r="R60" s="281"/>
-      <c r="S60" s="281"/>
-      <c r="T60" s="281"/>
-      <c r="U60" s="281"/>
-      <c r="V60" s="281"/>
-      <c r="W60" s="281"/>
+      <c r="D60" s="270"/>
+      <c r="E60" s="270"/>
+      <c r="F60" s="270"/>
+      <c r="G60" s="270"/>
+      <c r="H60" s="270"/>
+      <c r="I60" s="270"/>
+      <c r="J60" s="270"/>
+      <c r="K60" s="270"/>
+      <c r="L60" s="270"/>
+      <c r="M60" s="270"/>
+      <c r="N60" s="270"/>
+      <c r="O60" s="270"/>
+      <c r="P60" s="270"/>
+      <c r="Q60" s="270"/>
+      <c r="R60" s="270"/>
+      <c r="S60" s="270"/>
+      <c r="T60" s="270"/>
+      <c r="U60" s="270"/>
+      <c r="V60" s="270"/>
+      <c r="W60" s="270"/>
       <c r="X60" s="25"/>
       <c r="Y60" s="25"/>
       <c r="Z60" s="25"/>
@@ -49100,33 +49076,33 @@
       <c r="AI60" s="25"/>
       <c r="AJ60" s="25"/>
     </row>
-    <row r="61" spans="2:51" ht="15.75">
+    <row r="61" spans="2:51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="59">
         <v>7</v>
       </c>
-      <c r="C61" s="278" t="s">
+      <c r="C61" s="267" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
-      <c r="H61" s="278"/>
-      <c r="I61" s="278"/>
-      <c r="J61" s="278"/>
-      <c r="K61" s="278"/>
-      <c r="L61" s="278"/>
-      <c r="M61" s="278"/>
-      <c r="N61" s="278"/>
-      <c r="O61" s="278"/>
-      <c r="P61" s="278"/>
-      <c r="Q61" s="278"/>
-      <c r="R61" s="278"/>
-      <c r="S61" s="278"/>
-      <c r="T61" s="278"/>
-      <c r="U61" s="278"/>
+      <c r="D61" s="267"/>
+      <c r="E61" s="267"/>
+      <c r="F61" s="267"/>
+      <c r="G61" s="267"/>
+      <c r="H61" s="267"/>
+      <c r="I61" s="267"/>
+      <c r="J61" s="267"/>
+      <c r="K61" s="267"/>
+      <c r="L61" s="267"/>
+      <c r="M61" s="267"/>
+      <c r="N61" s="267"/>
+      <c r="O61" s="267"/>
+      <c r="P61" s="267"/>
+      <c r="Q61" s="267"/>
+      <c r="R61" s="267"/>
+      <c r="S61" s="267"/>
+      <c r="T61" s="267"/>
+      <c r="U61" s="267"/>
     </row>
-    <row r="62" spans="2:51" ht="16.5">
+    <row r="62" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B62" s="59">
         <v>8</v>
       </c>
@@ -49153,7 +49129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="2:51">
+    <row r="63" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B63" s="59">
         <v>9</v>
       </c>
@@ -49161,7 +49137,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="2:51" ht="16.5">
+    <row r="64" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B64" s="59">
         <v>10</v>
       </c>
@@ -49169,7 +49145,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="16.5">
+    <row r="65" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B65" s="59">
         <v>11</v>
       </c>
@@ -49177,7 +49153,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="59">
         <v>12</v>
       </c>
@@ -49185,7 +49161,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="59">
         <v>13</v>
       </c>
@@ -49193,7 +49169,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="59">
         <v>14</v>
       </c>
@@ -49201,7 +49177,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="59">
         <v>15</v>
       </c>
@@ -49209,7 +49185,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="59">
         <v>16</v>
       </c>
@@ -49217,7 +49193,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="59">
         <v>16</v>
       </c>
@@ -49225,7 +49201,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="59">
         <v>17</v>
       </c>
@@ -49233,7 +49209,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="59">
         <v>18</v>
       </c>
@@ -49241,7 +49217,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="59">
         <v>19</v>
       </c>
@@ -49249,7 +49225,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="59">
         <v>20</v>
       </c>
@@ -49257,7 +49233,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="59">
         <v>21</v>
       </c>
@@ -49265,7 +49241,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="59">
         <v>22</v>
       </c>
@@ -49273,7 +49249,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="59">
         <v>23</v>
       </c>
@@ -49283,6 +49259,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AR7:AT7"/>
+    <mergeCell ref="AR49:AT49"/>
+    <mergeCell ref="T5:AK5"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="C59:T59"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C61:U61"/>
@@ -49297,13 +49280,6 @@
     <mergeCell ref="AA49:AD49"/>
     <mergeCell ref="AF6:AI6"/>
     <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AR7:AT7"/>
-    <mergeCell ref="AR49:AT49"/>
-    <mergeCell ref="T5:AK5"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49320,33 +49296,33 @@
       <selection pane="topRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" customWidth="1"/>
-    <col min="17" max="32" width="15.5703125" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" customWidth="1"/>
-    <col min="34" max="34" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" customWidth="1"/>
-    <col min="36" max="36" width="13.140625" customWidth="1"/>
-    <col min="37" max="37" width="17.7109375" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="18.140625" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" customWidth="1"/>
+    <col min="17" max="32" width="15.5546875" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" customWidth="1"/>
+    <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.44140625" customWidth="1"/>
+    <col min="36" max="36" width="13.109375" customWidth="1"/>
+    <col min="37" max="37" width="17.6640625" customWidth="1"/>
+    <col min="38" max="38" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="18.109375" customWidth="1"/>
+    <col min="42" max="42" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43">
+    <row r="1" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -49390,7 +49366,7 @@
       <c r="AP1" s="25"/>
       <c r="AQ1" s="25"/>
     </row>
-    <row r="2" spans="2:43">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B2" s="25"/>
       <c r="C2" s="289"/>
       <c r="D2" s="287"/>
@@ -49442,7 +49418,7 @@
       <c r="AP2" s="217"/>
       <c r="AQ2" s="25"/>
     </row>
-    <row r="3" spans="2:43">
+    <row r="3" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
       <c r="C3" s="289"/>
       <c r="D3" s="287"/>
@@ -49573,7 +49549,7 @@
       </c>
       <c r="AQ3" s="25"/>
     </row>
-    <row r="4" spans="2:43">
+    <row r="4" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B4" s="25"/>
       <c r="C4" s="100" t="s">
         <v>29</v>
@@ -49728,7 +49704,7 @@
       </c>
       <c r="AQ4" s="25"/>
     </row>
-    <row r="5" spans="2:43">
+    <row r="5" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B5" s="126" t="s">
         <v>34</v>
       </c>
@@ -49836,7 +49812,7 @@
       <c r="AP5" s="25"/>
       <c r="AQ5" s="25"/>
     </row>
-    <row r="6" spans="2:43">
+    <row r="6" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B6" s="126"/>
       <c r="C6" s="183" t="str">
         <f>VLOOKUP(plots!AC3,mat_param!C9:C47,1,FALSE)</f>
@@ -50000,7 +49976,7 @@
       </c>
       <c r="AQ6" s="25"/>
     </row>
-    <row r="7" spans="2:43" ht="9" customHeight="1">
+    <row r="7" spans="2:43" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="59"/>
       <c r="C7" s="100"/>
       <c r="D7" s="100"/>
@@ -50044,7 +50020,7 @@
       <c r="AP7" s="186"/>
       <c r="AQ7" s="25"/>
     </row>
-    <row r="8" spans="2:43">
+    <row r="8" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B8" s="59"/>
       <c r="C8" s="183" t="s">
         <v>44</v>
@@ -50154,7 +50130,7 @@
       </c>
       <c r="AQ8" s="25"/>
     </row>
-    <row r="9" spans="2:43">
+    <row r="9" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B9" s="126" t="s">
         <v>34</v>
       </c>
@@ -50288,7 +50264,7 @@
       </c>
       <c r="AQ9" s="25"/>
     </row>
-    <row r="10" spans="2:43">
+    <row r="10" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B10" s="126" t="s">
         <v>34</v>
       </c>
@@ -50400,7 +50376,7 @@
       </c>
       <c r="AQ10" s="25"/>
     </row>
-    <row r="11" spans="2:43">
+    <row r="11" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B11" s="126"/>
       <c r="C11" s="183" t="s">
         <v>27</v>
@@ -50504,7 +50480,7 @@
       </c>
       <c r="AQ11" s="25"/>
     </row>
-    <row r="12" spans="2:43">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B12" s="126"/>
       <c r="C12" s="183" t="s">
         <v>28</v>
@@ -50602,7 +50578,7 @@
       </c>
       <c r="AQ12" s="102"/>
     </row>
-    <row r="13" spans="2:43">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B13" s="126" t="s">
         <v>34</v>
       </c>
@@ -50739,7 +50715,7 @@
       </c>
       <c r="AQ13" s="25"/>
     </row>
-    <row r="14" spans="2:43">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B14" s="126" t="s">
         <v>34</v>
       </c>
@@ -50841,7 +50817,7 @@
       </c>
       <c r="AQ14" s="102"/>
     </row>
-    <row r="15" spans="2:43">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B15" s="126" t="s">
         <v>34</v>
       </c>
@@ -50943,7 +50919,7 @@
       </c>
       <c r="AQ15" s="25"/>
     </row>
-    <row r="16" spans="2:43">
+    <row r="16" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B16" s="126" t="s">
         <v>36</v>
       </c>
@@ -51059,7 +51035,7 @@
       </c>
       <c r="AQ16" s="188"/>
     </row>
-    <row r="17" spans="2:43">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B17" s="126" t="s">
         <v>36</v>
       </c>
@@ -51161,7 +51137,7 @@
       </c>
       <c r="AQ17" s="102"/>
     </row>
-    <row r="18" spans="2:43">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B18" s="59"/>
       <c r="C18" s="183" t="s">
         <v>231</v>
@@ -51309,7 +51285,7 @@
       </c>
       <c r="AQ18" s="25"/>
     </row>
-    <row r="19" spans="2:43">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B19" s="59"/>
       <c r="C19" s="183" t="s">
         <v>234</v>
@@ -51457,7 +51433,7 @@
       </c>
       <c r="AQ19" s="25"/>
     </row>
-    <row r="20" spans="2:43">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B20" s="59"/>
       <c r="C20" s="225" t="s">
         <v>232</v>
@@ -51605,7 +51581,7 @@
       </c>
       <c r="AQ20" s="25"/>
     </row>
-    <row r="21" spans="2:43">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B21" s="59"/>
       <c r="C21" s="183" t="s">
         <v>233</v>
@@ -51701,7 +51677,7 @@
       </c>
       <c r="AQ21" s="102"/>
     </row>
-    <row r="22" spans="2:43">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B22" s="59"/>
       <c r="C22" s="183" t="s">
         <v>231</v>
@@ -51849,7 +51825,7 @@
       </c>
       <c r="AQ22" s="25"/>
     </row>
-    <row r="23" spans="2:43">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B23" s="25"/>
       <c r="C23" s="183" t="s">
         <v>234</v>
@@ -51996,7 +51972,7 @@
       </c>
       <c r="AQ23" s="25"/>
     </row>
-    <row r="24" spans="2:43">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B24" s="25"/>
       <c r="C24" s="183" t="s">
         <v>245</v>
@@ -52050,7 +52026,7 @@
       <c r="AP24" s="25"/>
       <c r="AQ24" s="25"/>
     </row>
-    <row r="25" spans="2:43">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -52094,7 +52070,7 @@
       <c r="AP25" s="25"/>
       <c r="AQ25" s="25"/>
     </row>
-    <row r="26" spans="2:43">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -52138,7 +52114,7 @@
       <c r="AP26" s="25"/>
       <c r="AQ26" s="25"/>
     </row>
-    <row r="27" spans="2:43">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B27" s="25"/>
       <c r="C27" s="183" t="s">
         <v>35</v>
@@ -52184,7 +52160,7 @@
       <c r="AP27" s="25"/>
       <c r="AQ27" s="25"/>
     </row>
-    <row r="28" spans="2:43">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -52228,7 +52204,7 @@
       <c r="AP28" s="25"/>
       <c r="AQ28" s="25"/>
     </row>
-    <row r="29" spans="2:43">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -52272,7 +52248,7 @@
       <c r="AP29" s="25"/>
       <c r="AQ29" s="25"/>
     </row>
-    <row r="30" spans="2:43">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
         <v>264</v>
       </c>
@@ -52297,7 +52273,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="2:43">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -52314,7 +52290,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="2:43">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.3">
       <c r="C32" s="183" t="s">
         <v>44</v>
       </c>
@@ -52335,7 +52311,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="33" spans="3:52">
+    <row r="33" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C33" s="183" t="s">
         <v>43</v>
       </c>
@@ -52360,7 +52336,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="34" spans="3:52">
+    <row r="34" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C34" s="183" t="s">
         <v>42</v>
       </c>
@@ -52381,7 +52357,7 @@
         <v>36.81</v>
       </c>
     </row>
-    <row r="35" spans="3:52">
+    <row r="35" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C35" s="183" t="s">
         <v>27</v>
       </c>
@@ -52400,7 +52376,7 @@
         <v>1.2300000000000001E-6</v>
       </c>
     </row>
-    <row r="36" spans="3:52">
+    <row r="36" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C36" s="183" t="s">
         <v>28</v>
       </c>
@@ -52419,7 +52395,7 @@
         <v>1.2300000000000001E-6</v>
       </c>
     </row>
-    <row r="37" spans="3:52">
+    <row r="37" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C37" s="183" t="s">
         <v>38</v>
       </c>
@@ -52444,7 +52420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="3:52">
+    <row r="38" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C38" s="183" t="s">
         <v>26</v>
       </c>
@@ -52468,7 +52444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="3:52">
+    <row r="39" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C39" s="183" t="s">
         <v>40</v>
       </c>
@@ -52489,63 +52465,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:52">
+    <row r="40" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C40" s="183" t="s">
         <v>229</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="184"/>
     </row>
-    <row r="41" spans="3:52">
+    <row r="41" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C41" s="183" t="s">
         <v>230</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="184"/>
     </row>
-    <row r="42" spans="3:52">
+    <row r="42" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C42" s="183" t="s">
         <v>231</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
     </row>
-    <row r="43" spans="3:52">
+    <row r="43" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C43" s="183" t="s">
         <v>234</v>
       </c>
       <c r="D43" s="223"/>
       <c r="E43" s="223"/>
     </row>
-    <row r="44" spans="3:52">
+    <row r="44" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C44" s="225" t="s">
         <v>232</v>
       </c>
       <c r="D44" s="184"/>
       <c r="E44" s="184"/>
     </row>
-    <row r="45" spans="3:52">
+    <row r="45" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C45" s="183" t="s">
         <v>233</v>
       </c>
       <c r="D45" s="184"/>
       <c r="E45" s="184"/>
     </row>
-    <row r="46" spans="3:52">
+    <row r="46" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C46" s="183" t="s">
         <v>231</v>
       </c>
       <c r="D46" s="184"/>
       <c r="E46" s="184"/>
     </row>
-    <row r="47" spans="3:52">
+    <row r="47" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C47" s="183" t="s">
         <v>234</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
     </row>
-    <row r="48" spans="3:52">
+    <row r="48" spans="3:52" x14ac:dyDescent="0.3">
       <c r="C48" s="183" t="s">
         <v>245</v>
       </c>
@@ -52644,17 +52620,17 @@
       <selection activeCell="CB26" sqref="CB26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="29" max="29" width="33.7109375" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" customWidth="1"/>
-    <col min="51" max="51" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="29" max="29" width="33.6640625" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" customWidth="1"/>
+    <col min="51" max="51" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:67">
+    <row r="2" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AC2" s="146" t="s">
         <v>184</v>
       </c>
@@ -52669,7 +52645,7 @@
       <c r="BN2" s="5"/>
       <c r="BO2" s="5"/>
     </row>
-    <row r="3" spans="3:67">
+    <row r="3" spans="3:67" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
@@ -52692,7 +52668,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
     </row>
-    <row r="4" spans="3:67">
+    <row r="4" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
@@ -52704,19 +52680,19 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
     </row>
-    <row r="7" spans="3:67">
+    <row r="7" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AP7" t="str">
         <f>sim_results!C6&amp; " and debris cloud diamter"</f>
         <v>density and debris cloud diamter</v>
       </c>
     </row>
-    <row r="10" spans="3:67">
+    <row r="10" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AD10" t="str">
         <f>sim_results!C6&amp; " and target hole diameter"</f>
         <v>density and target hole diameter</v>
       </c>
     </row>
-    <row r="11" spans="3:67">
+    <row r="11" spans="3:67" x14ac:dyDescent="0.3">
       <c r="BD11" t="s">
         <v>269</v>
       </c>
@@ -52724,7 +52700,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="3:67">
+    <row r="12" spans="3:67" x14ac:dyDescent="0.3">
       <c r="AD12" t="str">
         <f>CONCATENATE(sim_results!D6," (",sim_results!E6,")")</f>
         <v>rho (ton/mm3)</v>
@@ -52741,7 +52717,7 @@
         <v>11.46923</v>
       </c>
     </row>
-    <row r="13" spans="3:67">
+    <row r="13" spans="3:67" x14ac:dyDescent="0.3">
       <c r="BC13" t="s">
         <v>155</v>
       </c>
@@ -52754,7 +52730,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="14" spans="3:67">
+    <row r="14" spans="3:67" x14ac:dyDescent="0.3">
       <c r="BC14" t="s">
         <v>142</v>
       </c>
@@ -52767,7 +52743,7 @@
         <v>15.44</v>
       </c>
     </row>
-    <row r="15" spans="3:67">
+    <row r="15" spans="3:67" x14ac:dyDescent="0.3">
       <c r="BC15" t="s">
         <v>208</v>
       </c>
@@ -52780,17 +52756,17 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="24" spans="30:80">
+    <row r="24" spans="30:80" x14ac:dyDescent="0.3">
       <c r="AZ24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="30:80">
+    <row r="26" spans="30:80" x14ac:dyDescent="0.3">
       <c r="CB26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="30:80">
+    <row r="29" spans="30:80" x14ac:dyDescent="0.3">
       <c r="AD29" t="str">
         <f>sim_results!C6&amp;" and percentage of solid material in debris cloud"</f>
         <v>density and percentage of solid material in debris cloud</v>
@@ -52800,15 +52776,15 @@
         <v>density and residual velocity</v>
       </c>
     </row>
-    <row r="45" spans="58:80">
+    <row r="45" spans="58:80" x14ac:dyDescent="0.3">
       <c r="CB45" s="12"/>
     </row>
-    <row r="46" spans="58:80">
+    <row r="46" spans="58:80" x14ac:dyDescent="0.3">
       <c r="BF46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="37:37">
+    <row r="50" spans="37:37" x14ac:dyDescent="0.3">
       <c r="AK50" t="str">
         <f>sim_results!C6&amp; " and percentage of converted particles due to temperature"</f>
         <v>density and percentage of converted particles due to temperature</v>
@@ -52836,37 +52812,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B4229-EA03-4E67-BC3F-2CC32347831E}">
   <dimension ref="B3:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView topLeftCell="D3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="243"/>
-    <col min="2" max="2" width="4.7109375" style="243" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="243"/>
+    <col min="2" max="2" width="4.6640625" style="243" customWidth="1"/>
     <col min="3" max="3" width="5" style="244" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="243" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="243" customWidth="1"/>
     <col min="5" max="5" width="6" style="243" customWidth="1"/>
     <col min="6" max="6" width="7" style="243" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="243" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="243" customWidth="1"/>
     <col min="8" max="8" width="14" style="243" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="243" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="243" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="243" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="243" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="243" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="243" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="243" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" style="243" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="243" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="243" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="243" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="243" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="243" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="243" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="243" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" style="243" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="243" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="243" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" style="243" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="243"/>
-    <col min="21" max="21" width="19.28515625" style="243" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="243"/>
+    <col min="18" max="18" width="15.6640625" style="243" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.44140625" style="243" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="243"/>
+    <col min="21" max="21" width="19.33203125" style="243" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="243"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" ht="15.75" thickBot="1">
+    <row r="3" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="245"/>
       <c r="E3" s="245"/>
       <c r="F3" s="245"/>
@@ -52891,7 +52867,7 @@
       <c r="Y3" s="245"/>
       <c r="Z3" s="245"/>
     </row>
-    <row r="4" spans="2:26" ht="45.75" thickBot="1">
+    <row r="4" spans="2:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="290" t="s">
         <v>250</v>
       </c>
@@ -52951,7 +52927,7 @@
       <c r="Y4" s="245"/>
       <c r="Z4" s="245"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1">
+    <row r="5" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="243">
         <v>1</v>
       </c>
@@ -53017,7 +52993,7 @@
       <c r="Y5" s="245"/>
       <c r="Z5" s="245"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1">
+    <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="243">
         <f>B5+1</f>
         <v>2</v>
@@ -53082,7 +53058,7 @@
       <c r="Y6" s="245"/>
       <c r="Z6" s="245"/>
     </row>
-    <row r="7" spans="2:26" ht="15.75" thickBot="1">
+    <row r="7" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="243">
         <f t="shared" ref="B7:B40" si="1">B6+1</f>
         <v>3</v>
@@ -53147,7 +53123,7 @@
       <c r="Y7" s="245"/>
       <c r="Z7" s="245"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1">
+    <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="243">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -53212,7 +53188,7 @@
       <c r="Y8" s="245"/>
       <c r="Z8" s="245"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1">
+    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="243">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -53272,7 +53248,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1">
+    <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="243">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -53332,7 +53308,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1">
+    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="243">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -53392,7 +53368,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="15.75" thickBot="1">
+    <row r="12" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="243">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -53452,7 +53428,7 @@
         <v>-1.0900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="15.75" thickBot="1">
+    <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="243">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -53512,7 +53488,7 @@
         <v>-3.49</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="15.75" thickBot="1">
+    <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="243">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -53574,7 +53550,7 @@
         <v>-4.32</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="15.75" thickBot="1">
+    <row r="15" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="243">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -53634,7 +53610,7 @@
         <v>-8.76</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="15.75" thickBot="1">
+    <row r="16" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="243">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -53694,7 +53670,7 @@
         <v>-9.8800000000000008</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="15.75" thickBot="1">
+    <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="243">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -53754,7 +53730,7 @@
         <v>-8.65</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="15.75" thickBot="1">
+    <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="243">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -53814,7 +53790,7 @@
         <v>-13.87</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="15.75" thickBot="1">
+    <row r="19" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="243">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -53874,7 +53850,7 @@
         <v>-14.83</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="15.75" thickBot="1">
+    <row r="20" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="243">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -53934,7 +53910,7 @@
         <v>-12.43</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="15.75" thickBot="1">
+    <row r="21" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="243">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -53994,7 +53970,7 @@
         <v>-16.79</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="15.75" thickBot="1">
+    <row r="22" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="243">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -54054,7 +54030,7 @@
         <v>-19.190000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="15.75" thickBot="1">
+    <row r="23" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="243">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -54116,7 +54092,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="15.75" thickBot="1">
+    <row r="24" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="243">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -54176,7 +54152,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="15.75" thickBot="1">
+    <row r="25" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="243">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -54236,7 +54212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="15.75" thickBot="1">
+    <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="243">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -54296,7 +54272,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="15.75" thickBot="1">
+    <row r="27" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="243">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -54356,7 +54332,7 @@
         <v>-5.1100000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:21" ht="15.75" thickBot="1">
+    <row r="28" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="243">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -54416,7 +54392,7 @@
         <v>-5.52</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="15.75" thickBot="1">
+    <row r="29" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="243">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -54476,7 +54452,7 @@
         <v>-7.57</v>
       </c>
     </row>
-    <row r="30" spans="2:21" ht="15.75" thickBot="1">
+    <row r="30" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="243">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -54536,7 +54512,7 @@
         <v>-7.66</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="15.75" thickBot="1">
+    <row r="31" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="243">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -54596,7 +54572,7 @@
         <v>-8.43</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="15.75" thickBot="1">
+    <row r="32" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="243">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -54658,7 +54634,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="33" spans="2:24" ht="15.75" thickBot="1">
+    <row r="33" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="243">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -54718,7 +54694,7 @@
         <v>-23.72</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="15.75" thickBot="1">
+    <row r="34" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="243">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -54781,7 +54757,7 @@
       <c r="W34" s="251"/>
       <c r="X34" s="251"/>
     </row>
-    <row r="35" spans="2:24" ht="15.75" thickBot="1">
+    <row r="35" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="243">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -54844,7 +54820,7 @@
       <c r="W35" s="251"/>
       <c r="X35" s="251"/>
     </row>
-    <row r="36" spans="2:24" ht="15.75" thickBot="1">
+    <row r="36" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="243">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -54907,7 +54883,7 @@
       <c r="W36" s="251"/>
       <c r="X36" s="251"/>
     </row>
-    <row r="37" spans="2:24" ht="15.75" thickBot="1">
+    <row r="37" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="243">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -54970,7 +54946,7 @@
       <c r="W37" s="251"/>
       <c r="X37" s="251"/>
     </row>
-    <row r="38" spans="2:24" ht="15.75" thickBot="1">
+    <row r="38" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="243">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -55033,7 +55009,7 @@
       <c r="W38" s="251"/>
       <c r="X38" s="251"/>
     </row>
-    <row r="39" spans="2:24" ht="15.75" thickBot="1">
+    <row r="39" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="243">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -55096,7 +55072,7 @@
       <c r="W39" s="251"/>
       <c r="X39" s="251"/>
     </row>
-    <row r="40" spans="2:24" ht="15.75" thickBot="1">
+    <row r="40" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="243">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -55159,67 +55135,67 @@
       <c r="W40" s="251"/>
       <c r="X40" s="251"/>
     </row>
-    <row r="41" spans="2:24">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="V41" s="252"/>
       <c r="W41" s="251"/>
       <c r="X41" s="251"/>
     </row>
-    <row r="42" spans="2:24">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="V42" s="252"/>
       <c r="W42" s="251"/>
       <c r="X42" s="251"/>
     </row>
-    <row r="43" spans="2:24">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="V43" s="252"/>
       <c r="W43" s="251"/>
       <c r="X43" s="251"/>
     </row>
-    <row r="44" spans="2:24">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="V44" s="252"/>
       <c r="W44" s="251"/>
       <c r="X44" s="251"/>
     </row>
-    <row r="45" spans="2:24">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="V45" s="252"/>
       <c r="W45" s="251"/>
       <c r="X45" s="251"/>
     </row>
-    <row r="46" spans="2:24">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="V46" s="252"/>
       <c r="W46" s="251"/>
       <c r="X46" s="251"/>
     </row>
-    <row r="47" spans="2:24">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="V47" s="252"/>
       <c r="W47" s="251"/>
       <c r="X47" s="251"/>
     </row>
-    <row r="48" spans="2:24">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="V48" s="252"/>
       <c r="W48" s="251"/>
       <c r="X48" s="251"/>
     </row>
-    <row r="49" spans="22:24">
+    <row r="49" spans="22:24" x14ac:dyDescent="0.3">
       <c r="V49" s="252"/>
       <c r="W49" s="251"/>
       <c r="X49" s="251"/>
     </row>
-    <row r="50" spans="22:24">
+    <row r="50" spans="22:24" x14ac:dyDescent="0.3">
       <c r="V50" s="252"/>
       <c r="W50" s="251"/>
       <c r="X50" s="251"/>
     </row>
-    <row r="51" spans="22:24">
+    <row r="51" spans="22:24" x14ac:dyDescent="0.3">
       <c r="V51" s="252"/>
       <c r="W51" s="251"/>
       <c r="X51" s="251"/>
     </row>
-    <row r="52" spans="22:24">
+    <row r="52" spans="22:24" x14ac:dyDescent="0.3">
       <c r="V52" s="252"/>
       <c r="W52" s="251"/>
       <c r="X52" s="251"/>
     </row>
-    <row r="53" spans="22:24">
+    <row r="53" spans="22:24" x14ac:dyDescent="0.3">
       <c r="V53" s="251"/>
       <c r="W53" s="251"/>
       <c r="X53" s="251"/>
@@ -55231,4 +55207,1248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBBD695-314A-4A74-8DAE-553F54C67D89}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="291" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="234"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>Sheet1!D5</f>
+        <v>AA6070-O</v>
+      </c>
+      <c r="B1" s="291">
+        <f>Sheet1!G5</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C1">
+        <f>Sheet1!H5</f>
+        <v>5.5</v>
+      </c>
+      <c r="D1" s="234">
+        <f>Sheet1!J5</f>
+        <v>11.01</v>
+      </c>
+      <c r="E1" s="234">
+        <f>Sheet1!K5</f>
+        <v>29.91</v>
+      </c>
+      <c r="F1" s="234">
+        <f>Sheet1!N5</f>
+        <v>40.659999999999997</v>
+      </c>
+      <c r="G1" s="234">
+        <f>Sheet1!P5*-1</f>
+        <v>4.55</v>
+      </c>
+      <c r="H1" s="234">
+        <f>Sheet1!Q5</f>
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>Sheet1!D6</f>
+        <v>AA6070-O</v>
+      </c>
+      <c r="B2" s="291">
+        <f>Sheet1!G6</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C2">
+        <f>Sheet1!H6</f>
+        <v>6.7</v>
+      </c>
+      <c r="D2" s="234">
+        <f>Sheet1!J6</f>
+        <v>11.15</v>
+      </c>
+      <c r="E2" s="234">
+        <f>Sheet1!K6</f>
+        <v>34.869999999999997</v>
+      </c>
+      <c r="F2" s="234">
+        <f>Sheet1!N6</f>
+        <v>22.54</v>
+      </c>
+      <c r="G2" s="234">
+        <f>Sheet1!P6*-1</f>
+        <v>4.33</v>
+      </c>
+      <c r="H2" s="234">
+        <f>Sheet1!Q6</f>
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>Sheet1!D7</f>
+        <v>AA6070-O</v>
+      </c>
+      <c r="B3" s="291">
+        <f>Sheet1!G7</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C3">
+        <f>Sheet1!H7</f>
+        <v>7.5</v>
+      </c>
+      <c r="D3" s="234">
+        <f>Sheet1!J7</f>
+        <v>11.18</v>
+      </c>
+      <c r="E3" s="234">
+        <f>Sheet1!K7</f>
+        <v>38</v>
+      </c>
+      <c r="F3" s="234">
+        <f>Sheet1!N7</f>
+        <v>16.89</v>
+      </c>
+      <c r="G3" s="234">
+        <f>Sheet1!P7*-1</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H3" s="234">
+        <f>Sheet1!Q7</f>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>Sheet1!D8</f>
+        <v>AA6070-O</v>
+      </c>
+      <c r="B4" s="291">
+        <f>Sheet1!G8</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C4">
+        <f>Sheet1!H8</f>
+        <v>5.5</v>
+      </c>
+      <c r="D4" s="234">
+        <f>Sheet1!J8</f>
+        <v>11.39</v>
+      </c>
+      <c r="E4" s="234">
+        <f>Sheet1!K8</f>
+        <v>35.880000000000003</v>
+      </c>
+      <c r="F4" s="234">
+        <f>Sheet1!N8</f>
+        <v>22.87</v>
+      </c>
+      <c r="G4" s="234">
+        <f>Sheet1!P8*-1</f>
+        <v>6.55</v>
+      </c>
+      <c r="H4" s="234">
+        <f>Sheet1!Q8</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>Sheet1!D9</f>
+        <v>AA6070-O</v>
+      </c>
+      <c r="B5" s="291">
+        <f>Sheet1!G9</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C5">
+        <f>Sheet1!H9</f>
+        <v>6.7</v>
+      </c>
+      <c r="D5" s="234">
+        <f>Sheet1!J9</f>
+        <v>11.43</v>
+      </c>
+      <c r="E5" s="234">
+        <f>Sheet1!K9</f>
+        <v>47.74</v>
+      </c>
+      <c r="F5" s="234">
+        <f>Sheet1!N9</f>
+        <v>14.26</v>
+      </c>
+      <c r="G5" s="234">
+        <f>Sheet1!P9*-1</f>
+        <v>6.42</v>
+      </c>
+      <c r="H5" s="234">
+        <f>Sheet1!Q9</f>
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>Sheet1!D10</f>
+        <v>AA6070-O</v>
+      </c>
+      <c r="B6" s="291">
+        <f>Sheet1!G10</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C6">
+        <f>Sheet1!H10</f>
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="234">
+        <f>Sheet1!J10</f>
+        <v>11.55</v>
+      </c>
+      <c r="E6" s="234">
+        <f>Sheet1!K10</f>
+        <v>60.29</v>
+      </c>
+      <c r="F6" s="234">
+        <f>Sheet1!N10</f>
+        <v>9.02</v>
+      </c>
+      <c r="G6" s="234">
+        <f>Sheet1!P10*-1</f>
+        <v>6.13</v>
+      </c>
+      <c r="H6" s="234">
+        <f>Sheet1!Q10</f>
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>Sheet1!D11</f>
+        <v>AA6070-O</v>
+      </c>
+      <c r="B7" s="291">
+        <f>Sheet1!G11</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C7">
+        <f>Sheet1!H11</f>
+        <v>5.5</v>
+      </c>
+      <c r="D7" s="234">
+        <f>Sheet1!J11</f>
+        <v>11.92</v>
+      </c>
+      <c r="E7" s="234">
+        <f>Sheet1!K11</f>
+        <v>44.93</v>
+      </c>
+      <c r="F7" s="234">
+        <f>Sheet1!N11</f>
+        <v>14.26</v>
+      </c>
+      <c r="G7" s="234">
+        <f>Sheet1!P11*-1</f>
+        <v>8.36</v>
+      </c>
+      <c r="H7" s="234">
+        <f>Sheet1!Q11</f>
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>Sheet1!D12</f>
+        <v>AA6070-O</v>
+      </c>
+      <c r="B8" s="291">
+        <f>Sheet1!G12</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C8">
+        <f>Sheet1!H12</f>
+        <v>6.7</v>
+      </c>
+      <c r="D8" s="234">
+        <f>Sheet1!J12</f>
+        <v>12.17</v>
+      </c>
+      <c r="E8" s="234">
+        <f>Sheet1!K12</f>
+        <v>57.27</v>
+      </c>
+      <c r="F8" s="234">
+        <f>Sheet1!N12</f>
+        <v>9.43</v>
+      </c>
+      <c r="G8" s="234">
+        <f>Sheet1!P12*-1</f>
+        <v>8.36</v>
+      </c>
+      <c r="H8" s="234">
+        <f>Sheet1!Q12</f>
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>Sheet1!D13</f>
+        <v>AA6070-O</v>
+      </c>
+      <c r="B9" s="291">
+        <f>Sheet1!G13</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C9">
+        <f>Sheet1!H13</f>
+        <v>7.5</v>
+      </c>
+      <c r="D9" s="234">
+        <f>Sheet1!J13</f>
+        <v>12.28</v>
+      </c>
+      <c r="E9" s="234">
+        <f>Sheet1!K13</f>
+        <v>68.14</v>
+      </c>
+      <c r="F9" s="234">
+        <f>Sheet1!N13</f>
+        <v>8.36</v>
+      </c>
+      <c r="G9" s="234">
+        <f>Sheet1!P13*-1</f>
+        <v>7.87</v>
+      </c>
+      <c r="H9" s="234">
+        <f>Sheet1!Q13</f>
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>Sheet1!D14</f>
+        <v>STEEL 4340</v>
+      </c>
+      <c r="B10" s="291">
+        <f>Sheet1!G14</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C10">
+        <f>Sheet1!H14</f>
+        <v>5.5</v>
+      </c>
+      <c r="D10" s="234">
+        <f>Sheet1!J14</f>
+        <v>15.4</v>
+      </c>
+      <c r="E10" s="234">
+        <f>Sheet1!K14</f>
+        <v>69.39</v>
+      </c>
+      <c r="F10" s="234">
+        <f>Sheet1!N14</f>
+        <v>5.88</v>
+      </c>
+      <c r="G10" s="234">
+        <f>Sheet1!P14*-1</f>
+        <v>12.55</v>
+      </c>
+      <c r="H10" s="234">
+        <f>Sheet1!Q14</f>
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>Sheet1!D15</f>
+        <v>STEEL 4340</v>
+      </c>
+      <c r="B11" s="291">
+        <f>Sheet1!G15</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C11">
+        <f>Sheet1!H15</f>
+        <v>6.7</v>
+      </c>
+      <c r="D11" s="234">
+        <f>Sheet1!J15</f>
+        <v>14.32</v>
+      </c>
+      <c r="E11" s="234">
+        <f>Sheet1!K15</f>
+        <v>80.95</v>
+      </c>
+      <c r="F11" s="234">
+        <f>Sheet1!N15</f>
+        <v>3.84</v>
+      </c>
+      <c r="G11" s="234">
+        <f>Sheet1!P15*-1</f>
+        <v>11.34</v>
+      </c>
+      <c r="H11" s="234">
+        <f>Sheet1!Q15</f>
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>Sheet1!D16</f>
+        <v>STEEL 4340</v>
+      </c>
+      <c r="B12" s="291">
+        <f>Sheet1!G16</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C12">
+        <f>Sheet1!H16</f>
+        <v>7.5</v>
+      </c>
+      <c r="D12" s="234">
+        <f>Sheet1!J16</f>
+        <v>13.96</v>
+      </c>
+      <c r="E12" s="234">
+        <f>Sheet1!K16</f>
+        <v>83.53</v>
+      </c>
+      <c r="F12" s="234">
+        <f>Sheet1!N16</f>
+        <v>2.65</v>
+      </c>
+      <c r="G12" s="234">
+        <f>Sheet1!P16*-1</f>
+        <v>10.8</v>
+      </c>
+      <c r="H12" s="234">
+        <f>Sheet1!Q16</f>
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>Sheet1!D17</f>
+        <v>STEEL 4340</v>
+      </c>
+      <c r="B13" s="291">
+        <f>Sheet1!G17</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C13">
+        <f>Sheet1!H17</f>
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="234">
+        <f>Sheet1!J17</f>
+        <v>15.56</v>
+      </c>
+      <c r="E13" s="234">
+        <f>Sheet1!K17</f>
+        <v>77.510000000000005</v>
+      </c>
+      <c r="F13" s="234">
+        <f>Sheet1!N17</f>
+        <v>3.94</v>
+      </c>
+      <c r="G13" s="234">
+        <f>Sheet1!P17*-1</f>
+        <v>17.09</v>
+      </c>
+      <c r="H13" s="234">
+        <f>Sheet1!Q17</f>
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>Sheet1!D18</f>
+        <v>STEEL 4340</v>
+      </c>
+      <c r="B14" s="291">
+        <f>Sheet1!G18</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C14">
+        <f>Sheet1!H18</f>
+        <v>6.7</v>
+      </c>
+      <c r="D14" s="234">
+        <f>Sheet1!J18</f>
+        <v>15.44</v>
+      </c>
+      <c r="E14" s="234">
+        <f>Sheet1!K18</f>
+        <v>98</v>
+      </c>
+      <c r="F14" s="234">
+        <f>Sheet1!N18</f>
+        <v>2.75</v>
+      </c>
+      <c r="G14" s="234">
+        <f>Sheet1!P18*-1</f>
+        <v>14.63</v>
+      </c>
+      <c r="H14" s="234">
+        <f>Sheet1!Q18</f>
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>Sheet1!D19</f>
+        <v>STEEL 4340</v>
+      </c>
+      <c r="B15" s="291">
+        <f>Sheet1!G19</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C15">
+        <f>Sheet1!H19</f>
+        <v>7.5</v>
+      </c>
+      <c r="D15" s="234">
+        <f>Sheet1!J19</f>
+        <v>14.98</v>
+      </c>
+      <c r="E15" s="234">
+        <f>Sheet1!K19</f>
+        <v>106.49</v>
+      </c>
+      <c r="F15" s="234">
+        <f>Sheet1!N19</f>
+        <v>2.09</v>
+      </c>
+      <c r="G15" s="234">
+        <f>Sheet1!P19*-1</f>
+        <v>13.6</v>
+      </c>
+      <c r="H15" s="234">
+        <f>Sheet1!Q19</f>
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>Sheet1!D20</f>
+        <v>STEEL 4340</v>
+      </c>
+      <c r="B16" s="291">
+        <f>Sheet1!G20</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C16">
+        <f>Sheet1!H20</f>
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="234">
+        <f>Sheet1!J20</f>
+        <v>16.88</v>
+      </c>
+      <c r="E16" s="234">
+        <f>Sheet1!K20</f>
+        <v>89.96</v>
+      </c>
+      <c r="F16" s="234">
+        <f>Sheet1!N20</f>
+        <v>2.36</v>
+      </c>
+      <c r="G16" s="234">
+        <f>Sheet1!P20*-1</f>
+        <v>20.36</v>
+      </c>
+      <c r="H16" s="234">
+        <f>Sheet1!Q20</f>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>Sheet1!D21</f>
+        <v>STEEL 4340</v>
+      </c>
+      <c r="B17" s="291">
+        <f>Sheet1!G21</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C17">
+        <f>Sheet1!H21</f>
+        <v>6.7</v>
+      </c>
+      <c r="D17" s="234">
+        <f>Sheet1!J21</f>
+        <v>15.4</v>
+      </c>
+      <c r="E17" s="234">
+        <f>Sheet1!K21</f>
+        <v>110.6</v>
+      </c>
+      <c r="F17" s="234">
+        <f>Sheet1!N21</f>
+        <v>2.48</v>
+      </c>
+      <c r="G17" s="234">
+        <f>Sheet1!P21*-1</f>
+        <v>17.61</v>
+      </c>
+      <c r="H17" s="234">
+        <f>Sheet1!Q21</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>Sheet1!D22</f>
+        <v>STEEL 4340</v>
+      </c>
+      <c r="B18" s="291">
+        <f>Sheet1!G22</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C18">
+        <f>Sheet1!H22</f>
+        <v>7.5</v>
+      </c>
+      <c r="D18" s="234">
+        <f>Sheet1!J22</f>
+        <v>15.82</v>
+      </c>
+      <c r="E18" s="234">
+        <f>Sheet1!K22</f>
+        <v>123.99</v>
+      </c>
+      <c r="F18" s="234">
+        <f>Sheet1!N22</f>
+        <v>1.43</v>
+      </c>
+      <c r="G18" s="234">
+        <f>Sheet1!P22*-1</f>
+        <v>15.87</v>
+      </c>
+      <c r="H18" s="234">
+        <f>Sheet1!Q22</f>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>Sheet1!D23</f>
+        <v>Ti-6Al-4V</v>
+      </c>
+      <c r="B19" s="291">
+        <f>Sheet1!G23</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C19">
+        <f>Sheet1!H23</f>
+        <v>5.5</v>
+      </c>
+      <c r="D19" s="234">
+        <f>Sheet1!J23</f>
+        <v>12.88</v>
+      </c>
+      <c r="E19" s="234">
+        <f>Sheet1!K23</f>
+        <v>39.18</v>
+      </c>
+      <c r="F19" s="234">
+        <f>Sheet1!N23</f>
+        <v>15.33</v>
+      </c>
+      <c r="G19" s="234">
+        <f>Sheet1!P23*-1</f>
+        <v>7.09</v>
+      </c>
+      <c r="H19" s="234">
+        <f>Sheet1!Q23</f>
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>Sheet1!D24</f>
+        <v>Ti-6Al-4V</v>
+      </c>
+      <c r="B20" s="291">
+        <f>Sheet1!G24</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C20">
+        <f>Sheet1!H24</f>
+        <v>6.7</v>
+      </c>
+      <c r="D20" s="234">
+        <f>Sheet1!J24</f>
+        <v>12.73</v>
+      </c>
+      <c r="E20" s="234">
+        <f>Sheet1!K24</f>
+        <v>49.02</v>
+      </c>
+      <c r="F20" s="234">
+        <f>Sheet1!N24</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G20" s="234">
+        <f>Sheet1!P24*-1</f>
+        <v>6.72</v>
+      </c>
+      <c r="H20" s="234">
+        <f>Sheet1!Q24</f>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>Sheet1!D25</f>
+        <v>Ti-6Al-4V</v>
+      </c>
+      <c r="B21" s="291">
+        <f>Sheet1!G25</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C21">
+        <f>Sheet1!H25</f>
+        <v>7.5</v>
+      </c>
+      <c r="D21" s="234">
+        <f>Sheet1!J25</f>
+        <v>12.51</v>
+      </c>
+      <c r="E21" s="234">
+        <f>Sheet1!K25</f>
+        <v>55.17</v>
+      </c>
+      <c r="F21" s="234">
+        <f>Sheet1!N25</f>
+        <v>6.75</v>
+      </c>
+      <c r="G21" s="234">
+        <f>Sheet1!P25*-1</f>
+        <v>6.4</v>
+      </c>
+      <c r="H21" s="234">
+        <f>Sheet1!Q25</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>Sheet1!D26</f>
+        <v>Ti-6Al-4V</v>
+      </c>
+      <c r="B22" s="291">
+        <f>Sheet1!G26</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C22">
+        <f>Sheet1!H26</f>
+        <v>5.5</v>
+      </c>
+      <c r="D22" s="234">
+        <f>Sheet1!J26</f>
+        <v>13.58</v>
+      </c>
+      <c r="E22" s="234">
+        <f>Sheet1!K26</f>
+        <v>59.94</v>
+      </c>
+      <c r="F22" s="234">
+        <f>Sheet1!N26</f>
+        <v>7.39</v>
+      </c>
+      <c r="G22" s="234">
+        <f>Sheet1!P26*-1</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="234">
+        <f>Sheet1!Q26</f>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>Sheet1!D27</f>
+        <v>Ti-6Al-4V</v>
+      </c>
+      <c r="B23" s="291">
+        <f>Sheet1!G27</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C23">
+        <f>Sheet1!H27</f>
+        <v>6.7</v>
+      </c>
+      <c r="D23" s="234">
+        <f>Sheet1!J27</f>
+        <v>13.52</v>
+      </c>
+      <c r="E23" s="234">
+        <f>Sheet1!K27</f>
+        <v>65.849999999999994</v>
+      </c>
+      <c r="F23" s="234">
+        <f>Sheet1!N27</f>
+        <v>4.43</v>
+      </c>
+      <c r="G23" s="234">
+        <f>Sheet1!P27*-1</f>
+        <v>9.1</v>
+      </c>
+      <c r="H23" s="234">
+        <f>Sheet1!Q27</f>
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>Sheet1!D28</f>
+        <v>Ti-6Al-4V</v>
+      </c>
+      <c r="B24" s="291">
+        <f>Sheet1!G28</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C24">
+        <f>Sheet1!H28</f>
+        <v>7.5</v>
+      </c>
+      <c r="D24" s="234">
+        <f>Sheet1!J28</f>
+        <v>13.65</v>
+      </c>
+      <c r="E24" s="234">
+        <f>Sheet1!K28</f>
+        <v>70.14</v>
+      </c>
+      <c r="F24" s="234">
+        <f>Sheet1!N28</f>
+        <v>4.7</v>
+      </c>
+      <c r="G24" s="234">
+        <f>Sheet1!P28*-1</f>
+        <v>9.07</v>
+      </c>
+      <c r="H24" s="234">
+        <f>Sheet1!Q28</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>Sheet1!D29</f>
+        <v>Ti-6Al-4V</v>
+      </c>
+      <c r="B25" s="291">
+        <f>Sheet1!G29</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C25">
+        <f>Sheet1!H29</f>
+        <v>5.5</v>
+      </c>
+      <c r="D25" s="234">
+        <f>Sheet1!J29</f>
+        <v>14.54</v>
+      </c>
+      <c r="E25" s="234">
+        <f>Sheet1!K29</f>
+        <v>68.52</v>
+      </c>
+      <c r="F25" s="234">
+        <f>Sheet1!N29</f>
+        <v>4.7</v>
+      </c>
+      <c r="G25" s="234">
+        <f>Sheet1!P29*-1</f>
+        <v>12</v>
+      </c>
+      <c r="H25" s="234">
+        <f>Sheet1!Q29</f>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>Sheet1!D30</f>
+        <v>Ti-6Al-4V</v>
+      </c>
+      <c r="B26" s="291">
+        <f>Sheet1!G30</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C26">
+        <f>Sheet1!H30</f>
+        <v>6.7</v>
+      </c>
+      <c r="D26" s="234">
+        <f>Sheet1!J30</f>
+        <v>14.55</v>
+      </c>
+      <c r="E26" s="234">
+        <f>Sheet1!K30</f>
+        <v>79.819999999999993</v>
+      </c>
+      <c r="F26" s="234">
+        <f>Sheet1!N30</f>
+        <v>3.56</v>
+      </c>
+      <c r="G26" s="234">
+        <f>Sheet1!P30*-1</f>
+        <v>11.19</v>
+      </c>
+      <c r="H26" s="234">
+        <f>Sheet1!Q30</f>
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>Sheet1!D31</f>
+        <v>Ti-6Al-4V</v>
+      </c>
+      <c r="B27" s="291">
+        <f>Sheet1!G31</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C27">
+        <f>Sheet1!H31</f>
+        <v>7.5</v>
+      </c>
+      <c r="D27" s="234">
+        <f>Sheet1!J31</f>
+        <v>14.38</v>
+      </c>
+      <c r="E27" s="234">
+        <f>Sheet1!K31</f>
+        <v>86.9</v>
+      </c>
+      <c r="F27" s="234">
+        <f>Sheet1!N31</f>
+        <v>3.3</v>
+      </c>
+      <c r="G27" s="234">
+        <f>Sheet1!P31*-1</f>
+        <v>10.67</v>
+      </c>
+      <c r="H27" s="234">
+        <f>Sheet1!Q31</f>
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>Sheet1!D32</f>
+        <v>TUNGSTEN ALLOY</v>
+      </c>
+      <c r="B28" s="291">
+        <f>Sheet1!G32</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C28">
+        <f>Sheet1!H32</f>
+        <v>5.5</v>
+      </c>
+      <c r="D28" s="234">
+        <f>Sheet1!J32</f>
+        <v>14.95</v>
+      </c>
+      <c r="E28" s="234">
+        <f>Sheet1!K32</f>
+        <v>94.84</v>
+      </c>
+      <c r="F28" s="234">
+        <f>Sheet1!N32</f>
+        <v>2.83</v>
+      </c>
+      <c r="G28" s="234">
+        <f>Sheet1!P32*-1</f>
+        <v>24.91</v>
+      </c>
+      <c r="H28" s="234">
+        <f>Sheet1!Q32</f>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>Sheet1!D33</f>
+        <v>TUNGSTEN ALLOY</v>
+      </c>
+      <c r="B29" s="291">
+        <f>Sheet1!G33</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C29">
+        <f>Sheet1!H33</f>
+        <v>6.7</v>
+      </c>
+      <c r="D29" s="234">
+        <f>Sheet1!J33</f>
+        <v>14.26</v>
+      </c>
+      <c r="E29" s="234">
+        <f>Sheet1!K33</f>
+        <v>111.08</v>
+      </c>
+      <c r="F29" s="234">
+        <f>Sheet1!N33</f>
+        <v>1.64</v>
+      </c>
+      <c r="G29" s="234">
+        <f>Sheet1!P33*-1</f>
+        <v>19.55</v>
+      </c>
+      <c r="H29" s="234">
+        <f>Sheet1!Q33</f>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>Sheet1!D34</f>
+        <v>TUNGSTEN ALLOY</v>
+      </c>
+      <c r="B30" s="291">
+        <f>Sheet1!G34</f>
+        <v>4.1753653444676408E-2</v>
+      </c>
+      <c r="C30">
+        <f>Sheet1!H34</f>
+        <v>7.5</v>
+      </c>
+      <c r="D30" s="234">
+        <f>Sheet1!J34</f>
+        <v>13.98</v>
+      </c>
+      <c r="E30" s="234">
+        <f>Sheet1!K34</f>
+        <v>130.53</v>
+      </c>
+      <c r="F30" s="234">
+        <f>Sheet1!N34</f>
+        <v>1.67</v>
+      </c>
+      <c r="G30" s="234">
+        <f>Sheet1!P34*-1</f>
+        <v>16.8</v>
+      </c>
+      <c r="H30" s="234">
+        <f>Sheet1!Q34</f>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>Sheet1!D35</f>
+        <v>TUNGSTEN ALLOY</v>
+      </c>
+      <c r="B31" s="291">
+        <f>Sheet1!G35</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C31">
+        <f>Sheet1!H35</f>
+        <v>5.5</v>
+      </c>
+      <c r="D31" s="234">
+        <f>Sheet1!J35</f>
+        <v>15.67</v>
+      </c>
+      <c r="E31" s="234">
+        <f>Sheet1!K35</f>
+        <v>105.85</v>
+      </c>
+      <c r="F31" s="234">
+        <f>Sheet1!N35</f>
+        <v>2.04</v>
+      </c>
+      <c r="G31" s="234">
+        <f>Sheet1!P35*-1</f>
+        <v>32.18</v>
+      </c>
+      <c r="H31" s="234">
+        <f>Sheet1!Q35</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>Sheet1!D36</f>
+        <v>TUNGSTEN ALLOY</v>
+      </c>
+      <c r="B32" s="291">
+        <f>Sheet1!G36</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C32">
+        <f>Sheet1!H36</f>
+        <v>6.7</v>
+      </c>
+      <c r="D32" s="234">
+        <f>Sheet1!J36</f>
+        <v>15.73</v>
+      </c>
+      <c r="E32" s="234">
+        <f>Sheet1!K36</f>
+        <v>129.58000000000001</v>
+      </c>
+      <c r="F32" s="234">
+        <f>Sheet1!N36</f>
+        <v>1.64</v>
+      </c>
+      <c r="G32" s="234">
+        <f>Sheet1!P36*-1</f>
+        <v>24.93</v>
+      </c>
+      <c r="H32" s="234">
+        <f>Sheet1!Q36</f>
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>Sheet1!D37</f>
+        <v>TUNGSTEN ALLOY</v>
+      </c>
+      <c r="B33" s="291">
+        <f>Sheet1!G37</f>
+        <v>8.3507306889352817E-2</v>
+      </c>
+      <c r="C33">
+        <f>Sheet1!H37</f>
+        <v>7.5</v>
+      </c>
+      <c r="D33" s="234">
+        <f>Sheet1!J37</f>
+        <v>15.63</v>
+      </c>
+      <c r="E33" s="234">
+        <f>Sheet1!K37</f>
+        <v>143.19</v>
+      </c>
+      <c r="F33" s="234">
+        <f>Sheet1!N37</f>
+        <v>1.31</v>
+      </c>
+      <c r="G33" s="234">
+        <f>Sheet1!P37*-1</f>
+        <v>24.27</v>
+      </c>
+      <c r="H33" s="234">
+        <f>Sheet1!Q37</f>
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>Sheet1!D38</f>
+        <v>TUNGSTEN ALLOY</v>
+      </c>
+      <c r="B34" s="291">
+        <f>Sheet1!G38</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C34">
+        <f>Sheet1!H38</f>
+        <v>5.5</v>
+      </c>
+      <c r="D34" s="234">
+        <f>Sheet1!J38</f>
+        <v>17.34</v>
+      </c>
+      <c r="E34" s="234">
+        <f>Sheet1!K38</f>
+        <v>113.8</v>
+      </c>
+      <c r="F34" s="234">
+        <f>Sheet1!N38</f>
+        <v>1.25</v>
+      </c>
+      <c r="G34" s="234">
+        <f>Sheet1!P38*-1</f>
+        <v>37.82</v>
+      </c>
+      <c r="H34" s="234">
+        <f>Sheet1!Q38</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>Sheet1!D39</f>
+        <v>TUNGSTEN ALLOY</v>
+      </c>
+      <c r="B35" s="291">
+        <f>Sheet1!G39</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C35">
+        <f>Sheet1!H39</f>
+        <v>6.7</v>
+      </c>
+      <c r="D35" s="234">
+        <f>Sheet1!J39</f>
+        <v>17.07</v>
+      </c>
+      <c r="E35" s="234">
+        <f>Sheet1!K39</f>
+        <v>132.41</v>
+      </c>
+      <c r="F35" s="234">
+        <f>Sheet1!N39</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G35" s="234">
+        <f>Sheet1!P39*-1</f>
+        <v>32.99</v>
+      </c>
+      <c r="H35" s="234">
+        <f>Sheet1!Q39</f>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>Sheet1!D40</f>
+        <v>TUNGSTEN ALLOY</v>
+      </c>
+      <c r="B36" s="291">
+        <f>Sheet1!G40</f>
+        <v>0.12526096033402923</v>
+      </c>
+      <c r="C36">
+        <f>Sheet1!H40</f>
+        <v>7.5</v>
+      </c>
+      <c r="D36" s="234">
+        <f>Sheet1!J40</f>
+        <v>16.68</v>
+      </c>
+      <c r="E36" s="234">
+        <f>Sheet1!K40</f>
+        <v>140.4</v>
+      </c>
+      <c r="F36" s="234">
+        <f>Sheet1!N40</f>
+        <v>0.98</v>
+      </c>
+      <c r="G36" s="234">
+        <f>Sheet1!P40*-1</f>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H36" s="234">
+        <f>Sheet1!Q40</f>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>